--- a/Zillow_API/Rocklin_data.xlsx
+++ b/Zillow_API/Rocklin_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
+          <t>6812 Camborne Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,008,930</t>
+          <t>$985,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3,287</t>
+          <t>3,656</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6812 Camborne Way, Rocklin, CA 95677</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$985,000</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3,656</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$399,999</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>0.77</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$399,999</t>
+          <t>$1,119,990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2,741</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,119,990</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2,741</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -646,27 +646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -676,27 +676,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$869,990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,356</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$869,990</t>
+          <t>$135,000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2,356</t>
+          <t>1,082</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
+          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$135,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1,082</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -766,27 +766,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,049,438</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,049,438</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>0.36</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
+          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.76</t>
         </is>
       </c>
     </row>
@@ -856,27 +856,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
+          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1,986</t>
         </is>
       </c>
     </row>
@@ -886,27 +886,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
+          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,399,990</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1,986</t>
+          <t>3,877</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$1,399,990</t>
+          <t>$837,318</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3,877</t>
+          <t>2,171</t>
         </is>
       </c>
     </row>
@@ -946,27 +946,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
+          <t>4050 Whitney Vista Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$837,318</t>
+          <t>$2,049,000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2,171</t>
+          <t>4,445</t>
         </is>
       </c>
     </row>
@@ -976,27 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4050 Whitney Vista Ln, Rocklin, CA 95677</t>
+          <t>5861 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$2,049,000</t>
+          <t>$1,108,287</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4,445</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5861 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>1228 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$1,108,287</t>
+          <t>$1,199,990</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>3,538</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1228 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>2578 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$1,199,990</t>
+          <t>$2,150,000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3,538</t>
+          <t>4,070</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1066,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2578 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>1233 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$2,150,000</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4,070</t>
+          <t>2,201</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1233 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>1235 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$1,149,990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2,201</t>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1126,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1235 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>The Emerald, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,149,990</t>
+          <t>$680,000+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>1,964</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Emerald, Rocklin, CA 95677</t>
+          <t>The Amethyst, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$680,000+</t>
+          <t>$715,000+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1,964</t>
+          <t>2,126</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Amethyst, Rocklin, CA 95677</t>
+          <t>The Sapphire, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$715,000+</t>
+          <t>$740,000+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2,126</t>
+          <t>2,232</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Sapphire, Rocklin, CA 95677</t>
+          <t>The Diamond, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$740,000+</t>
+          <t>$760,000+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2,232</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1246,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Diamond, Rocklin, CA 95677</t>
+          <t>Residence One, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$760,000+</t>
+          <t>$1,025,900+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>2,351</t>
         </is>
       </c>
     </row>
@@ -1276,27 +1276,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Residence One, Rocklin, CA 95765</t>
+          <t>Floorplan 4180, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$1,025,900+</t>
+          <t>$1,050,000+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2,351</t>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Floorplan 4180, Rocklin, CA 95677</t>
+          <t>Floorplan 4186, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,050,000+</t>
+          <t>$1,250,000+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>3,008</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Floorplan 4186, Rocklin, CA 95677</t>
+          <t>Floorplan 4184, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$1,250,000+</t>
+          <t>$1,125,000+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3,008</t>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -1366,27 +1366,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Floorplan 4184, Rocklin, CA 95677</t>
+          <t>Floorplan 4182, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$1,125,000+</t>
+          <t>$1,130,000+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Floorplan 4182, Rocklin, CA 95677</t>
+          <t>Plan 3, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$1,130,000+</t>
+          <t>$1,275,325+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3,710</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1426,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Plan 3, Rocklin, CA 95677</t>
+          <t>Plan 2, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$1,275,325+</t>
+          <t>$1,116,428+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3,710</t>
+          <t>3,503</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1456,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Plan 2, Rocklin, CA 95677</t>
+          <t>Plan 1, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$1,116,428+</t>
+          <t>$951,075+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3,503</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plan 1, Rocklin, CA 95677</t>
+          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$951,075+</t>
+          <t>$1,148,500</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>3,462</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1516,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
+          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$1,148,500</t>
+          <t>$459,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3,462</t>
+          <t>986</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1546,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
+          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$459,000</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>3,145</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
+          <t>2803 Executive Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3,145</t>
+          <t>1,206</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2803 Executive Ct, Rocklin, CA 95765</t>
+          <t>4405 Rocky Top Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$1,356,995</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1,206</t>
+          <t>3,837</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4405 Rocky Top Ct, Rocklin, CA 95765</t>
+          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$1,356,995</t>
+          <t>$1,378,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3,837</t>
+          <t>3,466</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
+          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$1,378,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3,466</t>
+          <t>3,624</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
+          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$1,124,800</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3,624</t>
+          <t>3,607</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$1,124,800</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3,607</t>
+          <t>3,113</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
+          <t>4180 Dias Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3,113</t>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4180 Dias Ln, Rocklin, CA 95677</t>
+          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>2,538</t>
         </is>
       </c>
     </row>
@@ -1816,27 +1816,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
+          <t>3934 Rawhide, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$270,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2,538</t>
+          <t>0.85</t>
         </is>
       </c>
     </row>
@@ -1846,27 +1846,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3934 Rawhide, Rocklin, CA 95677</t>
+          <t>924 Cougar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$270,000</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3,163</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>924 Cougar Ct, Rocklin, CA 95765</t>
+          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$1,099,359</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3,163</t>
+          <t>2,989</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1906,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$1,099,359</t>
+          <t>$399,900</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2,989</t>
+          <t>944</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1936,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
+          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$399,900</t>
+          <t>$1,225,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>4,486</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$1,225,000</t>
+          <t>$269,990</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4,486</t>
+          <t>1,401</t>
         </is>
       </c>
     </row>
@@ -1996,27 +1996,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
+          <t>1203 Albany Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$269,990</t>
+          <t>$981,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1,401</t>
+          <t>3,341</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2026,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1203 Albany Way, Rocklin, CA 95765</t>
+          <t>5505 S Grove #73, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$981,000</t>
+          <t>$179,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3,341</t>
+          <t>1,277</t>
         </is>
       </c>
     </row>
@@ -2056,27 +2056,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5505 S Grove #73, Rocklin, CA 95677</t>
+          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$179,000</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,277</t>
+          <t>0.28</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
+          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$819,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2,303</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
+          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$819,000</t>
+          <t>$905,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2,303</t>
+          <t>3,469</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2146,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
+          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$905,000</t>
+          <t>$799,999</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3,469</t>
+          <t>2,693</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2176,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
+          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$799,999</t>
+          <t>$1,149,800</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2,693</t>
+          <t>2,134</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2206,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2236,27 +2236,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,000,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,852</t>
         </is>
       </c>
     </row>
@@ -2266,27 +2266,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$1,000,000</t>
+          <t>$1,695,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2,852</t>
+          <t>5,304</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
+          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$1,695,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5,304</t>
+          <t>5,023</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2326,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$634,900</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5,023</t>
+          <t>1,976</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
+          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$634,900</t>
+          <t>$1,116,428</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1,976</t>
+          <t>3,309</t>
         </is>
       </c>
     </row>
@@ -2386,27 +2386,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$1,116,428</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3,309</t>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$1,398,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>4,162</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2446,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
+          <t>4421 Winners Cir, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$1,398,000</t>
+          <t>$519,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4,162</t>
+          <t>1,161</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2476,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4421 Winners Cir, Rocklin, CA 95677</t>
+          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$519,000</t>
+          <t>$735,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1,161</t>
+          <t>2,070</t>
         </is>
       </c>
     </row>
@@ -2506,27 +2506,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
+          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2,070</t>
+          <t>3,803</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2536,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
+          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$139,500</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3,803</t>
+          <t>1,363</t>
         </is>
       </c>
     </row>
@@ -2566,27 +2566,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
+          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$139,500</t>
+          <t>$139,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1,363</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -2596,27 +2596,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
+          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$139,000</t>
+          <t>$1,299,500</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>4,332</t>
         </is>
       </c>
     </row>
@@ -2626,27 +2626,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
+          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$1,299,500</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4,332</t>
+          <t>3,828</t>
         </is>
       </c>
     </row>
@@ -2656,27 +2656,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4412 Newland Heights Ct, Rocklin, CA 95765</t>
+          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,008,930</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1,992</t>
+          <t>3,287</t>
         </is>
       </c>
     </row>
@@ -2686,27 +2686,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3,828</t>
+          <t>3,939</t>
         </is>
       </c>
     </row>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
+          <t>4912 Charter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3,939</t>
+          <t>2,281</t>
         </is>
       </c>
     </row>
@@ -2746,27 +2746,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4912 Charter Rd, Rocklin, CA 95765</t>
+          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$284,128</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>1,050</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
+          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$284,128</t>
+          <t>$819,900</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
+          <t>4357 Leisa Ln, Penryn, CA 95663</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$819,900</t>
+          <t>$1,299,950</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>2,678</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4357 Leisa Ln, Penryn, CA 95663</t>
+          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$1,299,950</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2,678</t>
+          <t>3,332</t>
         </is>
       </c>
     </row>
@@ -2866,27 +2866,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
+          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$951,075</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3,332</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -2896,27 +2896,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$951,075</t>
+          <t>$118,555</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>960</t>
         </is>
       </c>
     </row>
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
+          <t>3507 Amethyst Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$118,555</t>
+          <t>$650,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>2,352</t>
         </is>
       </c>
     </row>
@@ -2956,27 +2956,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3507 Amethyst Ct, Rocklin, CA 95677</t>
+          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$650,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2,352</t>
+          <t>1,814</t>
         </is>
       </c>
     </row>
@@ -2986,27 +2986,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
+          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$999,900</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1,814</t>
+          <t>3,252</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
+          <t>840 Calico Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$999,900</t>
+          <t>$735,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3031,12 +3031,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3,252</t>
+          <t>2,404</t>
         </is>
       </c>
     </row>
@@ -3046,17 +3046,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>840 Calico Dr, Rocklin, CA 95765</t>
+          <t>3316 Wickenby Way, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2,404</t>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3076,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3316 Wickenby Way, Roseville, CA 95661</t>
+          <t>5240 Paragon St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$695,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>1,482</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5240 Paragon St, Rocklin, CA 95677</t>
+          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$695,000</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
+          <t>3260 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3260 Midas Ave, Rocklin, CA 95677</t>
+          <t>3519 Willard Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$560,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>1,694</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3519 Willard Way, Rocklin, CA 95677</t>
+          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$560,000</t>
+          <t>$965,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3211,12 +3211,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1,694</t>
+          <t>3,382</t>
         </is>
       </c>
     </row>
@@ -3226,27 +3226,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
+          <t>2240 Abby Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$965,000</t>
+          <t>$1,148,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3,382</t>
+          <t>3,363</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3256,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2240 Abby Rd, Rocklin, CA 95765</t>
+          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$1,148,000</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3,363</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
+          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$649,888</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>1,947</t>
         </is>
       </c>
     </row>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
+          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$649,888</t>
+          <t>$799,900</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1,947</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
+          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$799,900</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>4,532</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3376,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
+          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$1,595,000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>4,532</t>
+          <t>4,421</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
+          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$1,595,000</t>
+          <t>$949,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>3,771</t>
         </is>
       </c>
     </row>
@@ -3436,27 +3436,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
+          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$949,000</t>
+          <t>$449,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>1,544</t>
         </is>
       </c>
     </row>
@@ -3466,27 +3466,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
+          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$449,000</t>
+          <t>$950,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1,544</t>
+          <t>3,043</t>
         </is>
       </c>
     </row>
@@ -3496,27 +3496,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$950,000</t>
+          <t>$149,999</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>3,043</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -3526,27 +3526,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
+          <t>2308 Egret Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$149,999</t>
+          <t>$733,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>3,059</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2308 Egret Ct, Rocklin, CA 95765</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$733,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3,059</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -3586,27 +3586,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$328,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>816</t>
         </is>
       </c>
     </row>
@@ -3616,27 +3616,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
+          <t>8821 Cortina Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$328,000</t>
+          <t>$485,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>1,271</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>8821 Cortina Cir, Roseville, CA 95678</t>
+          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$485,000</t>
+          <t>$405,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1,271</t>
+          <t>1,195</t>
         </is>
       </c>
     </row>
@@ -3676,27 +3676,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
+          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$405,000</t>
+          <t>$674,950</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1,195</t>
+          <t>2,128</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
+          <t>5649 Black Willow St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$674,950</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3721,12 +3721,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2,128</t>
+          <t>2,300</t>
         </is>
       </c>
     </row>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5649 Black Willow St, Rocklin, CA 95677</t>
+          <t>3422 Cook St, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$590,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>1,900</t>
         </is>
       </c>
     </row>
@@ -3766,27 +3766,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3422 Cook St, Rocklin, CA 95765</t>
+          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1,900</t>
+          <t>3,121</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
+          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$549,000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3,121</t>
+          <t>1,577</t>
         </is>
       </c>
     </row>
@@ -3826,17 +3826,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
+          <t>4230 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$549,000</t>
+          <t>$689,000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1,577</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>4230 Midas Ave, Rocklin, CA 95677</t>
+          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$689,000</t>
+          <t>$999,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3871,40 +3871,10 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
-        <is>
-          <t>1,950</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>$999,000</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
         <is>
           <t>3,888</t>
         </is>

--- a/Zillow_API/Rocklin_data.xlsx
+++ b/Zillow_API/Rocklin_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Beds</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Baths</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Sqft</t>
         </is>
@@ -466,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6812 Camborne Way, Rocklin, CA 95677</t>
+          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$985,000</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -486,7 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3,656</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3,828</t>
         </is>
       </c>
     </row>
@@ -496,27 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$1,008,930</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3,287</t>
         </is>
       </c>
     </row>
@@ -526,27 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>6812 Camborne Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$399,999</t>
+          <t>$985,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3,656</t>
         </is>
       </c>
     </row>
@@ -556,27 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,119,990</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2,741</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -586,27 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$399,999</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.77</t>
         </is>
       </c>
     </row>
@@ -616,27 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,119,990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2,741</t>
         </is>
       </c>
     </row>
@@ -646,27 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -676,27 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$869,990</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2,356</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -706,27 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$135,000</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,082</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -736,27 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$869,990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2,356</t>
         </is>
       </c>
     </row>
@@ -766,27 +821,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,049,438</t>
+          <t>$135,000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-5/home/173451265</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,082</t>
         </is>
       </c>
     </row>
@@ -796,27 +856,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
+          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Rocklin/2316-Ranch-View-Dr-95765/home/173208060</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -826,27 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
+          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$1,049,438</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Rocklin/3325-Jamboree-Dr-95765/home/168188328</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -856,27 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
+          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/3645-Amethyst-Dr-95677/home/19518086</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1,986</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.36</t>
         </is>
       </c>
     </row>
@@ -886,27 +961,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$1,399,990</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/1510-Nichols-Dr-95765/home/148533199</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3,877</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.76</t>
         </is>
       </c>
     </row>
@@ -916,27 +996,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
+          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$837,318</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/4519-Scenic-Dr-95765/home/19518978</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2,171</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1,986</t>
         </is>
       </c>
     </row>
@@ -946,27 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4050 Whitney Vista Ln, Rocklin, CA 95677</t>
+          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$2,049,000</t>
+          <t>$1,399,990</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>/CA/Rocklin/2314-Ranch-View-Dr-95765/home/173208061</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4,445</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3,877</t>
         </is>
       </c>
     </row>
@@ -976,17 +1066,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5861 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,108,287</t>
+          <t>$837,318</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/6017-West-Oaks-Blvd-95765/home/175793787</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -996,7 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2,171</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1228 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>4105 - Lot 3 Hardrock Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$1,199,990</t>
+          <t>$195,000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/4105-Lot-3-Hard-Rock-Ct-95677/home/183370998</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3,538</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>8276</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1136,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2578 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>4050 Whitney Vista Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$2,150,000</t>
+          <t>$2,049,000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Rocklin/4050-Whitney-Vista-Ln-95677/home/180666864</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4,070</t>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4,445</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1171,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1233 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>5861 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$1,108,287</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/5861-Brookshire-Dr-95677/home/184067611</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1086,7 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2,201</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1206,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1235 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>1228 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$1,149,990</t>
+          <t>$1,199,990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/1228-Buck-Ridge-Dr-95765/home/180661672</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3,538</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1241,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Emerald, Rocklin, CA 95677</t>
+          <t>2578 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$680,000+</t>
+          <t>$2,150,000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/2578-Clubhouse-Dr-W-95765/home/19638924</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1,964</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4,070</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1276,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Amethyst, Rocklin, CA 95677</t>
+          <t>1233 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$715,000+</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/1233-Buck-Ridge-Ct-95765/home/180661696</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1176,7 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2,126</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2,201</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1311,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Sapphire, Rocklin, CA 95677</t>
+          <t>1235 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$740,000+</t>
+          <t>$1,149,990</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/1235-Buck-Ridge-Ct-95765/home/180661695</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1206,7 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2,232</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -1216,27 +1346,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Diamond, Rocklin, CA 95677</t>
+          <t>The Emerald, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$760,000+</t>
+          <t>$680,000+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Emerald/home/177028962</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1,964</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Residence One, Rocklin, CA 95765</t>
+          <t>The Amethyst, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,025,900+</t>
+          <t>$715,000+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Amethyst/home/177028963</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2,351</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2,126</t>
         </is>
       </c>
     </row>
@@ -1276,27 +1416,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Floorplan 4180, Rocklin, CA 95677</t>
+          <t>The Sapphire, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$1,050,000+</t>
+          <t>$740,000+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Sapphire/home/177028965</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2,232</t>
         </is>
       </c>
     </row>
@@ -1306,27 +1451,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Floorplan 4186, Rocklin, CA 95677</t>
+          <t>The Diamond, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,250,000+</t>
+          <t>$760,000+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Diamond/home/177056336</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3,008</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1486,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Floorplan 4184, Rocklin, CA 95677</t>
+          <t>Residence One, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$1,125,000+</t>
+          <t>$1,025,900+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/The-Summit-at-Whitney-Ranch/Residence-One/home/185142072</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1356,7 +1506,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2,351</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1521,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Floorplan 4182, Rocklin, CA 95677</t>
+          <t>Floorplan 4180, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$1,130,000+</t>
+          <t>$1,050,000+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4180/home/185599571</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1386,7 +1541,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1556,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plan 3, Rocklin, CA 95677</t>
+          <t>Floorplan 4186, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$1,275,325+</t>
+          <t>$1,250,000+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4186/home/185604533</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3,710</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3,008</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1591,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Plan 2, Rocklin, CA 95677</t>
+          <t>Floorplan 4184, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$1,116,428+</t>
+          <t>$1,125,000+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4184/home/185607861</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1446,7 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3,503</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1626,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Plan 1, Rocklin, CA 95677</t>
+          <t>Floorplan 4182, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$951,075+</t>
+          <t>$1,130,000+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4182/home/185610868</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1661,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
+          <t>Plan 3, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$1,148,500</t>
+          <t>$1,275,325+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-3/home/178456156</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3,462</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3,710</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1696,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
+          <t>Plan 2, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$459,000</t>
+          <t>$1,116,428+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-2/home/178456157</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>3,503</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
+          <t>Plan 1, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$951,075+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-1/home/178456158</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3,145</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2803 Executive Ct, Rocklin, CA 95765</t>
+          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$549,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>/CA/Rocklin/3408-Stoney-Rd-95765/home/19517823</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1,206</t>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1,577</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4405 Rocky Top Ct, Rocklin, CA 95765</t>
+          <t>4230 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$1,356,995</t>
+          <t>$689,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4230-Midas-Ave-95677/home/19571810</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3,837</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1836,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
+          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$1,378,000</t>
+          <t>$999,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/2402-Leafy-Way-Ct-95765/home/19594515</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3,466</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3,888</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1871,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
+          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$1,148,500</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/3381-Black-Oak-Dr-95765/home/19624984</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3,624</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>3,462</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1906,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$1,124,800</t>
+          <t>$459,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/5804-Meadowdale-Ct-95677/home/19577790</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1716,7 +1926,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3,607</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>986</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1941,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
+          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/2930-Dry-Gulch-Ct-95677/home/19571947</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3,113</t>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>3,145</t>
         </is>
       </c>
     </row>
@@ -1756,27 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4180 Dias Ln, Rocklin, CA 95677</t>
+          <t>2803 Executive Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/2803-Executive-Ct-95765/home/19633352</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1,206</t>
         </is>
       </c>
     </row>
@@ -1786,27 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
+          <t>4405 Rocky Top Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$1,356,995</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4405-Rocky-Top-Ct-95677/home/180666841</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2,538</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>3,837</t>
         </is>
       </c>
     </row>
@@ -1816,27 +2046,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3934 Rawhide, Rocklin, CA 95677</t>
+          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$270,000</t>
+          <t>$1,378,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Rocklin/4630-Ravine-Crossing-Ct-95677/home/19592177</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3,466</t>
         </is>
       </c>
     </row>
@@ -1846,27 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>924 Cougar Ct, Rocklin, CA 95765</t>
+          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>/CA/Rocklin/2504-Anvil-Ct-95765/home/19588484</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3,163</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>3,624</t>
         </is>
       </c>
     </row>
@@ -1876,27 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$1,099,359</t>
+          <t>$1,124,800</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/2532-Clubhouse-Dr-W-95765/home/19643217</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2,989</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>3,607</t>
         </is>
       </c>
     </row>
@@ -1906,27 +2151,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
+          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$399,900</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/4344-Lakebreeze-Dr-95677/home/19609032</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3,113</t>
         </is>
       </c>
     </row>
@@ -1936,27 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>4180 Dias Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$1,225,000</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/4180-Dias-Ln-95677/home/173208546</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4,486</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -1966,27 +2221,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
+          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$269,990</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Roseville/6792-Maple-Creek-Dr-95678/home/19628751</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,401</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2,538</t>
         </is>
       </c>
     </row>
@@ -1996,27 +2256,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1203 Albany Way, Rocklin, CA 95765</t>
+          <t>3934 Rawhide, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$981,000</t>
+          <t>$270,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/3934-Rawhide-Rd-95677/home/77488096</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3,341</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.85</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2291,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5505 S Grove #73, Rocklin, CA 95677</t>
+          <t>924 Cougar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$179,000</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/924-Cougar-Ct-95765/home/19595217</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1,277</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3,163</t>
         </is>
       </c>
     </row>
@@ -2056,27 +2326,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
+          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$1,099,359</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>/CA/Rocklin/3327-Jamboree-Dr-95765/home/168188327</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2,989</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
+          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$819,000</t>
+          <t>$399,900</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/2410-S-Whitney-Blvd-95677/home/19575199</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2,303</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>944</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
+          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$905,000</t>
+          <t>$1,225,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/2225-Wild-Plains-Cir-95765/home/19594539</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3,469</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>4,486</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2431,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$799,999</t>
+          <t>$269,990</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-308/home/183577717</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2,693</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,401</t>
         </is>
       </c>
     </row>
@@ -2176,17 +2466,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>5505 S Grove #73, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$179,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-73/home/109458325</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2196,7 +2486,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1,277</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/4787-Racetrack-Rd-95677/home/181067386</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>—Baths</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.28</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2536,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$1,000,000</t>
+          <t>$819,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/2513-Cowboy-Ct-95765/home/161230226</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2256,7 +2556,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2,852</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2,303</t>
         </is>
       </c>
     </row>
@@ -2266,27 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
+          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$1,695,000</t>
+          <t>$905,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>/CA/Rocklin/1022-Silver-Saddle-Ln-95765/home/19594904</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5,304</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3,469</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$799,999</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/5400-Bradall-Ln-95677/home/172233905</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5,023</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2,693</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
+          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$634,900</t>
+          <t>$1,149,800</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1,976</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2,134</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2676,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$1,116,428</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3,309</t>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2386,27 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$1,000,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2,852</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
+          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$1,398,000</t>
+          <t>$1,695,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4,162</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>5,304</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4421 Winners Cir, Rocklin, CA 95677</t>
+          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$519,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1,161</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5,023</t>
         </is>
       </c>
     </row>
@@ -2476,27 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
+          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$634,900</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/3319-Stanford-Village-Ct-95765/home/19518112</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2,070</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,976</t>
         </is>
       </c>
     </row>
@@ -2506,27 +2851,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
+          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$1,116,428</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3,803</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>3,309</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
+          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$139,500</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1,363</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -2566,27 +2921,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
+          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$139,000</t>
+          <t>$1,398,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>4,162</t>
         </is>
       </c>
     </row>
@@ -2596,27 +2956,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
+          <t>4421 Winners Cir, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$1,299,500</t>
+          <t>$519,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4,332</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1,161</t>
         </is>
       </c>
     </row>
@@ -2626,17 +2991,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$735,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2646,7 +3011,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3,828</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2,070</t>
         </is>
       </c>
     </row>
@@ -2656,27 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
+          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$1,008,930</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/3804-Calverhall-Way-95677/home/54603705</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3,287</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3,803</t>
         </is>
       </c>
     </row>
@@ -2686,27 +3061,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
+          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$139,500</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3,939</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1,363</t>
         </is>
       </c>
     </row>
@@ -2716,17 +3096,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4912 Charter Rd, Rocklin, CA 95765</t>
+          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$139,000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2736,7 +3116,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -2746,27 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
+          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$284,128</t>
+          <t>$1,299,500</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4,332</t>
         </is>
       </c>
     </row>
@@ -2776,27 +3166,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
+          <t>240 Nerissa Ct, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$819,900</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3,716</t>
         </is>
       </c>
     </row>
@@ -2806,17 +3201,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4357 Leisa Ln, Penryn, CA 95663</t>
+          <t>5642 Miners Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$1,299,950</t>
+          <t>$499,900</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2826,7 +3221,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2,678</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,251</t>
         </is>
       </c>
     </row>
@@ -2836,27 +3236,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
+          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>3,332</t>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>3,381</t>
         </is>
       </c>
     </row>
@@ -2866,27 +3271,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$951,075</t>
+          <t>$900,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>3,062</t>
         </is>
       </c>
     </row>
@@ -2896,27 +3306,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
+          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$118,555</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>3,939</t>
         </is>
       </c>
     </row>
@@ -2926,27 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3507 Amethyst Ct, Rocklin, CA 95677</t>
+          <t>4912 Charter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$650,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2,352</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2,281</t>
         </is>
       </c>
     </row>
@@ -2956,27 +3376,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
+          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$284,128</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>1,814</t>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1,050</t>
         </is>
       </c>
     </row>
@@ -2986,27 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
+          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$999,900</t>
+          <t>$819,900</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3,252</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3016,17 +3446,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>840 Calico Dr, Rocklin, CA 95765</t>
+          <t>4357 Leisa Ln, Penryn, CA 95663</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$1,299,950</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3036,7 +3466,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2,404</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2,678</t>
         </is>
       </c>
     </row>
@@ -3046,27 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3316 Wickenby Way, Roseville, CA 95661</t>
+          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>3,332</t>
         </is>
       </c>
     </row>
@@ -3076,27 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5240 Paragon St, Rocklin, CA 95677</t>
+          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$695,000</t>
+          <t>$951,075</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -3106,27 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$118,555</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>960</t>
         </is>
       </c>
     </row>
@@ -3136,17 +3586,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3260 Midas Ave, Rocklin, CA 95677</t>
+          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3156,7 +3606,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,814</t>
         </is>
       </c>
     </row>
@@ -3166,27 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3519 Willard Way, Rocklin, CA 95677</t>
+          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$560,000</t>
+          <t>$999,900</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1,694</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>3,252</t>
         </is>
       </c>
     </row>
@@ -3196,27 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
+          <t>840 Calico Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$965,000</t>
+          <t>$735,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/840-Calico-Dr-95765/home/56983472</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3,382</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2,404</t>
         </is>
       </c>
     </row>
@@ -3226,27 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2240 Abby Rd, Rocklin, CA 95765</t>
+          <t>3316 Wickenby Way, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$1,148,000</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>/CA/Roseville/3316-Wickenby-Way-95661/home/19627174</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3,363</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
+          <t>5240 Paragon St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$695,000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1,482</t>
         </is>
       </c>
     </row>
@@ -3286,27 +3761,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
+          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$649,888</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1,947</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
+          <t>3260 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$799,900</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -3346,17 +3831,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
+          <t>3519 Willard Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$560,000</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3366,7 +3851,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4,532</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,694</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3866,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
+          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$1,595,000</t>
+          <t>$965,000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>3,382</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
+          <t>2240 Abby Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$949,000</t>
+          <t>$1,148,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>3,363</t>
         </is>
       </c>
     </row>
@@ -3436,27 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
+          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$449,000</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1,544</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -3466,27 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
+          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$950,000</t>
+          <t>$649,888</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>3,043</t>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1,947</t>
         </is>
       </c>
     </row>
@@ -3496,27 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
+          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$149,999</t>
+          <t>$799,900</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3526,27 +4041,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2308 Egret Ct, Rocklin, CA 95765</t>
+          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$733,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3,059</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>4,532</t>
         </is>
       </c>
     </row>
@@ -3556,27 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,595,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>4,421</t>
         </is>
       </c>
     </row>
@@ -3586,27 +4111,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
+          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$328,000</t>
+          <t>$949,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>3,771</t>
         </is>
       </c>
     </row>
@@ -3616,27 +4146,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>8821 Cortina Cir, Roseville, CA 95678</t>
+          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$485,000</t>
+          <t>$449,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>/CA/Rocklin/2720-Angeles-Ct-95677/home/19576869</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>1,271</t>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1,544</t>
         </is>
       </c>
     </row>
@@ -3646,27 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
+          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$405,000</t>
+          <t>$899,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>1,195</t>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>3,043</t>
         </is>
       </c>
     </row>
@@ -3676,17 +4216,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$674,950</t>
+          <t>$149,999</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3696,7 +4236,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2,128</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -3706,27 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5649 Black Willow St, Rocklin, CA 95677</t>
+          <t>2308 Egret Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$733,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>3,059</t>
         </is>
       </c>
     </row>
@@ -3736,27 +4286,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3422 Cook St, Rocklin, CA 95765</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1,900</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -3766,27 +4321,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
+          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$328,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3,121</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>816</t>
         </is>
       </c>
     </row>
@@ -3796,17 +4356,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
+          <t>8821 Cortina Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$549,000</t>
+          <t>$469,995</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3816,7 +4376,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1,577</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1,271</t>
         </is>
       </c>
     </row>
@@ -3826,17 +4391,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4230 Midas Ave, Rocklin, CA 95677</t>
+          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$689,000</t>
+          <t>$405,000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>/CA/Rocklin/6570-Hearthstone-Cir-95677/unit-1413/home/19596416</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3846,7 +4411,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1,195</t>
         </is>
       </c>
     </row>
@@ -3856,27 +4426,137 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
+          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$999,000</t>
+          <t>$674,950</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2,128</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>5649 Black Willow St, Rocklin, CA 95677</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$775,000</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3422 Cook St, Rocklin, CA 95765</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$590,000</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>/CA/Rocklin/3422-Cook-St-95765/home/19514520</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>$899,900</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>/CA/Roseville/6884-Cherry-Ridge-Cir-95678/home/19009694</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>3,888</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>3,121</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Rocklin_data.xlsx
+++ b/Zillow_API/Rocklin_data.xlsx
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$1,299,500</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
+          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3,828</t>
+          <t>4,332</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
+          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,008,930</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
+          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3,287</t>
+          <t>3,828</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6812 Camborne Way, Rocklin, CA 95677</t>
+          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$985,000</t>
+          <t>$1,008,930</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
+          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3,656</t>
+          <t>3,287</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>6812 Camborne Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$985,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>3,656</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$399,999</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,119,990</t>
+          <t>$399,999</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
+          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2,741</t>
+          <t>0.77</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$1,119,990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>2,741</t>
         </is>
       </c>
     </row>
@@ -716,32 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -751,32 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -786,32 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$869,990</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,356</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -821,32 +821,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
+          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$135,000</t>
+          <t>$869,990</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-5/home/173451265</t>
+          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1,082</t>
+          <t>2,356</t>
         </is>
       </c>
     </row>
@@ -856,32 +856,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$135,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2316-Ranch-View-Dr-95765/home/173208060</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-5/home/173451265</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>1,082</t>
         </is>
       </c>
     </row>
@@ -891,32 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$1,049,438</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3325-Jamboree-Dr-95765/home/168188328</t>
+          <t>/CA/Rocklin/2316-Ranch-View-Dr-95765/home/173208060</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -926,32 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
+          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$1,049,438</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3645-Amethyst-Dr-95677/home/19518086</t>
+          <t>/CA/Rocklin/3325-Jamboree-Dr-95765/home/168188328</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
+          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1510-Nichols-Dr-95765/home/148533199</t>
+          <t>/CA/Rocklin/3645-Amethyst-Dr-95677/home/19518086</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.36</t>
         </is>
       </c>
     </row>
@@ -996,32 +996,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
+          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4519-Scenic-Dr-95765/home/19518978</t>
+          <t>/CA/Rocklin/1510-Nichols-Dr-95765/home/148533199</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1,986</t>
+          <t>0.76</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,399,990</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2314-Ranch-View-Dr-95765/home/173208061</t>
+          <t>/CA/Rocklin/4519-Scenic-Dr-95765/home/19518978</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3,877</t>
+          <t>1,986</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1066,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
+          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$837,318</t>
+          <t>$1,399,990</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6017-West-Oaks-Blvd-95765/home/175793787</t>
+          <t>/CA/Rocklin/2314-Ranch-View-Dr-95765/home/173208061</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,171</t>
+          <t>3,877</t>
         </is>
       </c>
     </row>
@@ -1101,32 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4105 - Lot 3 Hardrock Ct, Rocklin, CA 95677</t>
+          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$195,000</t>
+          <t>$837,318</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4105-Lot-3-Hard-Rock-Ct-95677/home/183370998</t>
+          <t>/CA/Rocklin/6017-West-Oaks-Blvd-95765/home/175793787</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8276</t>
+          <t>2,171</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>3709 Sylvan Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,115,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
+          <t>/CA/Rocklin/3709-Sylvan-Ct-95765/home/19626346</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>3,462</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$1,000,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
+          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2,852</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
+          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$1,695,000</t>
+          <t>$990,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
+          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>5,304</t>
+          <t>2,852</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$1,695,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
+          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5,023</t>
+          <t>5,304</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
+          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$634,900</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3319-Stanford-Village-Ct-95765/home/19518112</t>
+          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1,976</t>
+          <t>5,023</t>
         </is>
       </c>
     </row>
@@ -2851,32 +2851,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$1,116,428</t>
+          <t>$634,900</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
+          <t>/CA/Rocklin/3319-Stanford-Village-Ct-95765/home/19518112</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3,309</t>
+          <t>1,976</t>
         </is>
       </c>
     </row>
@@ -2886,32 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$1,116,428</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
+          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>3,309</t>
         </is>
       </c>
     </row>
@@ -2921,22 +2921,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
+          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$1,398,000</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
+          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4,162</t>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -2956,32 +2956,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4421 Winners Cir, Rocklin, CA 95677</t>
+          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$519,000</t>
+          <t>$1,398,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
+          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1,161</t>
+          <t>4,162</t>
         </is>
       </c>
     </row>
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
+          <t>4421 Winners Cir, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$519,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
+          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2,070</t>
+          <t>1,161</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
+          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$735,000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3804-Calverhall-Way-95677/home/54603705</t>
+          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3,803</t>
+          <t>2,070</t>
         </is>
       </c>
     </row>
@@ -3061,32 +3061,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
+          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$139,500</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
+          <t>/CA/Rocklin/3804-Calverhall-Way-95677/home/54603705</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1,363</t>
+          <t>3,803</t>
         </is>
       </c>
     </row>
@@ -3096,22 +3096,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
+          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$139,000</t>
+          <t>$139,500</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
+          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>1,363</t>
         </is>
       </c>
     </row>
@@ -3131,32 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
+          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$1,299,500</t>
+          <t>$139,000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
+          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4,332</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -3166,32 +3166,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>240 Nerissa Ct, Roseville, CA 95661</t>
+          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$653,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
+          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3,716</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5642 Miners Cir, Rocklin, CA 95765</t>
+          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$499,900</t>
+          <t>$1,000,000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
+          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1,251</t>
+          <t>2,773</t>
         </is>
       </c>
     </row>
@@ -3236,17 +3236,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
+          <t>240 Nerissa Ct, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
+          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3,381</t>
+          <t>3,716</t>
         </is>
       </c>
     </row>
@@ -3271,32 +3271,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
+          <t>5642 Miners Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$900,000</t>
+          <t>$499,900</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
+          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3,062</t>
+          <t>1,251</t>
         </is>
       </c>
     </row>
@@ -3306,32 +3306,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
+          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
+          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3,939</t>
+          <t>3,381</t>
         </is>
       </c>
     </row>
@@ -3341,32 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4912 Charter Rd, Rocklin, CA 95765</t>
+          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$900,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
+          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>3,062</t>
         </is>
       </c>
     </row>
@@ -3376,32 +3376,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
+          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$284,128</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
+          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>3,939</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
+          <t>4912 Charter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$819,900</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
+          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>2,281</t>
         </is>
       </c>
     </row>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4357 Leisa Ln, Penryn, CA 95663</t>
+          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$1,299,950</t>
+          <t>$284,128</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
+          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2,678</t>
+          <t>1,050</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
+          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$819,900</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
+          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3,332</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>4357 Leisa Ln, Penryn, CA 95663</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$951,075</t>
+          <t>$1,299,950</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
+          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>2,678</t>
         </is>
       </c>
     </row>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
+          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$118,555</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
+          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>3,332</t>
         </is>
       </c>
     </row>
@@ -3586,32 +3586,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
+          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$951,075</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
+          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1,814</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$999,900</t>
+          <t>$118,555</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3,252</t>
+          <t>960</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>840 Calico Dr, Rocklin, CA 95765</t>
+          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/840-Calico-Dr-95765/home/56983472</t>
+          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2,404</t>
+          <t>1,814</t>
         </is>
       </c>
     </row>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3316 Wickenby Way, Roseville, CA 95661</t>
+          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$999,900</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Roseville/3316-Wickenby-Way-95661/home/19627174</t>
+          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3711,12 +3711,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>3,252</t>
         </is>
       </c>
     </row>
@@ -3726,32 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5240 Paragon St, Rocklin, CA 95677</t>
+          <t>3316 Wickenby Way, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$695,000</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
+          <t>/CA/Roseville/3316-Wickenby-Way-95661/home/19627174</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
+          <t>5240 Paragon St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$695,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
+          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>1,482</t>
         </is>
       </c>
     </row>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3260 Midas Ave, Rocklin, CA 95677</t>
+          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
+          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3816,12 +3816,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -3831,17 +3831,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3519 Willard Way, Rocklin, CA 95677</t>
+          <t>3260 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$560,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
+          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1,694</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
+          <t>3519 Willard Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$965,000</t>
+          <t>$560,000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
+          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3,382</t>
+          <t>1,694</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2240 Abby Rd, Rocklin, CA 95765</t>
+          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$1,148,000</t>
+          <t>$965,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
+          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3,363</t>
+          <t>3,382</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
+          <t>2240 Abby Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$1,148,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
+          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>3,363</t>
         </is>
       </c>
     </row>
@@ -3971,17 +3971,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
+          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$649,888</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
+          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1,947</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -4006,17 +4006,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
+          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$799,900</t>
+          <t>$649,888</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
+          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>1,947</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4041,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
+          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$799,900</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
+          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>4,532</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
+          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$1,595,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
+          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>4,532</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
+          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$949,000</t>
+          <t>$1,595,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
+          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>4,421</t>
         </is>
       </c>
     </row>
@@ -4146,32 +4146,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
+          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$449,000</t>
+          <t>$949,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2720-Angeles-Ct-95677/home/19576869</t>
+          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1,544</t>
+          <t>3,771</t>
         </is>
       </c>
     </row>
@@ -4181,32 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
+          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$899,000</t>
+          <t>$449,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
+          <t>/CA/Rocklin/2720-Angeles-Ct-95677/home/19576869</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3,043</t>
+          <t>1,544</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
+          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$149,999</t>
+          <t>$899,000</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
+          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>3,043</t>
         </is>
       </c>
     </row>
@@ -4251,32 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2308 Egret Ct, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$733,000</t>
+          <t>$149,999</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3,059</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -4286,32 +4286,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>2308 Egret Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$733,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
+          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>3,059</t>
         </is>
       </c>
     </row>
@@ -4321,32 +4321,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$328,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -4356,32 +4356,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>8821 Cortina Cir, Roseville, CA 95678</t>
+          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$469,995</t>
+          <t>$328,000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
+          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1,271</t>
+          <t>816</t>
         </is>
       </c>
     </row>
@@ -4391,17 +4391,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
+          <t>8821 Cortina Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$405,000</t>
+          <t>$469,995</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6570-Hearthstone-Cir-95677/unit-1413/home/19596416</t>
+          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1,195</t>
+          <t>1,271</t>
         </is>
       </c>
     </row>
@@ -4426,32 +4426,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
+          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$674,950</t>
+          <t>$405,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
+          <t>/CA/Rocklin/6570-Hearthstone-Cir-95677/unit-1413/home/19596416</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2,128</t>
+          <t>1,195</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>5649 Black Willow St, Rocklin, CA 95677</t>
+          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$659,000</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
+          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4481,12 +4481,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>2,128</t>
         </is>
       </c>
     </row>
@@ -4496,22 +4496,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3422 Cook St, Rocklin, CA 95765</t>
+          <t>5649 Black Willow St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$590,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3422-Cook-St-95765/home/19514520</t>
+          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1,900</t>
+          <t>2,300</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Rocklin_data.xlsx
+++ b/Zillow_API/Rocklin_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
+          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,299,500</t>
+          <t>$139,500</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
+          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4,332</t>
+          <t>1,363</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$139,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
+          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3,828</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
+          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,008,930</t>
+          <t>$1,299,500</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
+          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3,287</t>
+          <t>4,332</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6812 Camborne Way, Rocklin, CA 95677</t>
+          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$985,000</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
+          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3,656</t>
+          <t>3,828</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$1,008,930</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>3,287</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>6812 Camborne Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$399,999</t>
+          <t>$985,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
+          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>3,656</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,119,990</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2,741</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -716,32 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$399,999</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>0.77</t>
         </is>
       </c>
     </row>
@@ -751,22 +751,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,119,990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>2,741</t>
         </is>
       </c>
     </row>
@@ -786,32 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$869,990</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,356</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -856,32 +856,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$135,000</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-5/home/173451265</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1,082</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -891,32 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$869,990</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2316-Ranch-View-Dr-95765/home/173208060</t>
+          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,356</t>
         </is>
       </c>
     </row>
@@ -926,32 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,049,438</t>
+          <t>$135,000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3325-Jamboree-Dr-95765/home/168188328</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-5/home/173451265</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>1,082</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
+          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3645-Amethyst-Dr-95677/home/19518086</t>
+          <t>/CA/Rocklin/2316-Ranch-View-Dr-95765/home/173208060</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -996,32 +996,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
+          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$1,049,438</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1510-Nichols-Dr-95765/home/148533199</t>
+          <t>/CA/Rocklin/3325-Jamboree-Dr-95765/home/168188328</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
+          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4519-Scenic-Dr-95765/home/19518978</t>
+          <t>/CA/Rocklin/3645-Amethyst-Dr-95677/home/19518086</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1,986</t>
+          <t>0.36</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1066,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,399,990</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2314-Ranch-View-Dr-95765/home/173208061</t>
+          <t>/CA/Rocklin/1510-Nichols-Dr-95765/home/148533199</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3,877</t>
+          <t>0.76</t>
         </is>
       </c>
     </row>
@@ -1101,32 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
+          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$837,318</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6017-West-Oaks-Blvd-95765/home/175793787</t>
+          <t>/CA/Rocklin/4519-Scenic-Dr-95765/home/19518978</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2,171</t>
+          <t>1,986</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4050 Whitney Vista Ln, Rocklin, CA 95677</t>
+          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$2,049,000</t>
+          <t>$1,399,990</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4050-Whitney-Vista-Ln-95677/home/180666864</t>
+          <t>/CA/Rocklin/2314-Ranch-View-Dr-95765/home/173208061</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4,445</t>
+          <t>3,877</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5861 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$1,108,287</t>
+          <t>$837,318</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5861-Brookshire-Dr-95677/home/184067611</t>
+          <t>/CA/Rocklin/6017-West-Oaks-Blvd-95765/home/175793787</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>2,171</t>
         </is>
       </c>
     </row>
@@ -1206,17 +1206,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1228 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>4050 Whitney Vista Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$1,199,990</t>
+          <t>$2,049,000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1228-Buck-Ridge-Dr-95765/home/180661672</t>
+          <t>/CA/Rocklin/4050-Whitney-Vista-Ln-95677/home/180666864</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3,538</t>
+          <t>4,445</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2578 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>5861 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$2,150,000</t>
+          <t>$1,108,287</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2578-Clubhouse-Dr-W-95765/home/19638924</t>
+          <t>/CA/Rocklin/5861-Brookshire-Dr-95677/home/184067611</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4,070</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -1276,32 +1276,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1233 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>1228 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$1,199,990</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1233-Buck-Ridge-Ct-95765/home/180661696</t>
+          <t>/CA/Rocklin/1228-Buck-Ridge-Dr-95765/home/180661672</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2,201</t>
+          <t>3,538</t>
         </is>
       </c>
     </row>
@@ -1311,32 +1311,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1235 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>2578 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,149,990</t>
+          <t>$2,150,000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1235-Buck-Ridge-Ct-95765/home/180661695</t>
+          <t>/CA/Rocklin/2578-Clubhouse-Dr-W-95765/home/19638924</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>4,070</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Emerald, Rocklin, CA 95677</t>
+          <t>1233 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$680,000+</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Granite-Terrace/The-Emerald/home/177028962</t>
+          <t>/CA/Rocklin/1233-Buck-Ridge-Ct-95765/home/180661696</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1,964</t>
+          <t>2,201</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Amethyst, Rocklin, CA 95677</t>
+          <t>1235 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$715,000+</t>
+          <t>$1,149,990</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Granite-Terrace/The-Amethyst/home/177028963</t>
+          <t>/CA/Rocklin/1235-Buck-Ridge-Ct-95765/home/180661695</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2,126</t>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Sapphire, Rocklin, CA 95677</t>
+          <t>The Emerald, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$740,000+</t>
+          <t>$680,000+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Granite-Terrace/The-Sapphire/home/177028965</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Emerald/home/177028962</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2,232</t>
+          <t>1,964</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Diamond, Rocklin, CA 95677</t>
+          <t>The Amethyst, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$760,000+</t>
+          <t>$715,000+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Granite-Terrace/The-Diamond/home/177056336</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Amethyst/home/177028963</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>2,126</t>
         </is>
       </c>
     </row>
@@ -1486,32 +1486,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Residence One, Rocklin, CA 95765</t>
+          <t>The Sapphire, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$1,025,900+</t>
+          <t>$740,000+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/The-Summit-at-Whitney-Ranch/Residence-One/home/185142072</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Sapphire/home/177028965</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2,351</t>
+          <t>2,232</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Floorplan 4180, Rocklin, CA 95677</t>
+          <t>The Diamond, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$1,050,000+</t>
+          <t>$760,000+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Dias-Lane/Floorplan-4180/home/185599571</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Diamond/home/177056336</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -1556,32 +1556,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Floorplan 4186, Rocklin, CA 95677</t>
+          <t>Residence One, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$1,250,000+</t>
+          <t>$1,025,900+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Dias-Lane/Floorplan-4186/home/185604533</t>
+          <t>/CA/Rocklin/The-Summit-at-Whitney-Ranch/Residence-One/home/185142072</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3,008</t>
+          <t>2,351</t>
         </is>
       </c>
     </row>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Floorplan 4184, Rocklin, CA 95677</t>
+          <t>Floorplan 4180, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$1,125,000+</t>
+          <t>$1,050,000+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Dias-Lane/Floorplan-4184/home/185607861</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4180/home/185599571</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -1626,32 +1626,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Floorplan 4182, Rocklin, CA 95677</t>
+          <t>Floorplan 4186, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$1,130,000+</t>
+          <t>$1,250,000+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Dias-Lane/Floorplan-4182/home/185610868</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4186/home/185604533</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3,008</t>
         </is>
       </c>
     </row>
@@ -1661,32 +1661,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plan 3, Rocklin, CA 95677</t>
+          <t>Floorplan 4184, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$1,275,325+</t>
+          <t>$1,125,000+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Rocklin-Meadows/Plan-3/home/178456156</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4184/home/185607861</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3,710</t>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plan 2, Rocklin, CA 95677</t>
+          <t>Floorplan 4182, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$1,116,428+</t>
+          <t>$1,130,000+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Rocklin-Meadows/Plan-2/home/178456157</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4182/home/185610868</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3,503</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plan 1, Rocklin, CA 95677</t>
+          <t>Plan 3, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$951,075+</t>
+          <t>$1,275,325+</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Rocklin-Meadows/Plan-1/home/178456158</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-3/home/178456156</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>3,710</t>
         </is>
       </c>
     </row>
@@ -1766,32 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
+          <t>Plan 2, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$549,000</t>
+          <t>$1,116,428+</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3408-Stoney-Rd-95765/home/19517823</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-2/home/178456157</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1,577</t>
+          <t>3,503</t>
         </is>
       </c>
     </row>
@@ -1801,32 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4230 Midas Ave, Rocklin, CA 95677</t>
+          <t>Plan 1, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$689,000</t>
+          <t>$951,075+</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4230-Midas-Ave-95677/home/19571810</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-1/home/178456158</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -1836,32 +1836,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
+          <t>5649 Black Willow St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$999,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2402-Leafy-Way-Ct-95765/home/19594515</t>
+          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3,888</t>
+          <t>2,300</t>
         </is>
       </c>
     </row>
@@ -1871,32 +1871,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
+          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$1,148,500</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3381-Black-Oak-Dr-95765/home/19624984</t>
+          <t>/CA/Roseville/6884-Cherry-Ridge-Cir-95678/home/19009694</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3,462</t>
+          <t>3,121</t>
         </is>
       </c>
     </row>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
+          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$459,000</t>
+          <t>$549,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5804-Meadowdale-Ct-95677/home/19577790</t>
+          <t>/CA/Rocklin/3408-Stoney-Rd-95765/home/19517823</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1,577</t>
         </is>
       </c>
     </row>
@@ -1941,32 +1941,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
+          <t>4230 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$689,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2930-Dry-Gulch-Ct-95677/home/19571947</t>
+          <t>/CA/Rocklin/4230-Midas-Ave-95677/home/19571810</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3,145</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2803 Executive Ct, Rocklin, CA 95765</t>
+          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$999,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2803-Executive-Ct-95765/home/19633352</t>
+          <t>/CA/Rocklin/2402-Leafy-Way-Ct-95765/home/19594515</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1,206</t>
+          <t>3,888</t>
         </is>
       </c>
     </row>
@@ -2011,17 +2011,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4405 Rocky Top Ct, Rocklin, CA 95765</t>
+          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$1,356,995</t>
+          <t>$1,148,500</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4405-Rocky-Top-Ct-95677/home/180666841</t>
+          <t>/CA/Rocklin/3381-Black-Oak-Dr-95765/home/19624984</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3,837</t>
+          <t>3,462</t>
         </is>
       </c>
     </row>
@@ -2046,32 +2046,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
+          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$1,378,000</t>
+          <t>$459,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4630-Ravine-Crossing-Ct-95677/home/19592177</t>
+          <t>/CA/Rocklin/5804-Meadowdale-Ct-95677/home/19577790</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3,466</t>
+          <t>986</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
+          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2504-Anvil-Ct-95765/home/19588484</t>
+          <t>/CA/Rocklin/2930-Dry-Gulch-Ct-95677/home/19571947</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3,624</t>
+          <t>3,145</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>2803 Executive Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$1,124,800</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2532-Clubhouse-Dr-W-95765/home/19643217</t>
+          <t>/CA/Rocklin/2803-Executive-Ct-95765/home/19633352</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3,607</t>
+          <t>1,206</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
+          <t>4405 Rocky Top Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$1,356,995</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4344-Lakebreeze-Dr-95677/home/19609032</t>
+          <t>/CA/Rocklin/4405-Rocky-Top-Ct-95677/home/180666841</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3,113</t>
+          <t>3,837</t>
         </is>
       </c>
     </row>
@@ -2186,17 +2186,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4180 Dias Ln, Rocklin, CA 95677</t>
+          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$1,378,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4180-Dias-Ln-95677/home/173208546</t>
+          <t>/CA/Rocklin/4630-Ravine-Crossing-Ct-95677/home/19592177</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2206,12 +2206,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>3,466</t>
         </is>
       </c>
     </row>
@@ -2221,22 +2221,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
+          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/CA/Roseville/6792-Maple-Creek-Dr-95678/home/19628751</t>
+          <t>/CA/Rocklin/2504-Anvil-Ct-95765/home/19588484</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2,538</t>
+          <t>3,624</t>
         </is>
       </c>
     </row>
@@ -2256,32 +2256,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3934 Rawhide, Rocklin, CA 95677</t>
+          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$270,000</t>
+          <t>$1,124,800</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3934-Rawhide-Rd-95677/home/77488096</t>
+          <t>/CA/Rocklin/2532-Clubhouse-Dr-W-95765/home/19643217</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3,607</t>
         </is>
       </c>
     </row>
@@ -2291,32 +2291,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>924 Cougar Ct, Rocklin, CA 95765</t>
+          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/924-Cougar-Ct-95765/home/19595217</t>
+          <t>/CA/Rocklin/4344-Lakebreeze-Dr-95677/home/19609032</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3,163</t>
+          <t>3,113</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>4180 Dias Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$1,099,359</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3327-Jamboree-Dr-95765/home/168188327</t>
+          <t>/CA/Rocklin/4180-Dias-Ln-95677/home/173208546</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2346,12 +2346,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2,989</t>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
+          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$399,900</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2410-S-Whitney-Blvd-95677/home/19575199</t>
+          <t>/CA/Roseville/6792-Maple-Creek-Dr-95678/home/19628751</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>2,538</t>
         </is>
       </c>
     </row>
@@ -2396,32 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>3934 Rawhide, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$1,225,000</t>
+          <t>$270,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2225-Wild-Plains-Cir-95765/home/19594539</t>
+          <t>/CA/Rocklin/3934-Rawhide-Rd-95677/home/77488096</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4,486</t>
+          <t>0.85</t>
         </is>
       </c>
     </row>
@@ -2431,32 +2431,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
+          <t>924 Cougar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$269,990</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-308/home/183577717</t>
+          <t>/CA/Rocklin/924-Cougar-Ct-95765/home/19595217</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1,401</t>
+          <t>3,163</t>
         </is>
       </c>
     </row>
@@ -2466,32 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5505 S Grove #73, Rocklin, CA 95677</t>
+          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$179,000</t>
+          <t>$1,099,359</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-73/home/109458325</t>
+          <t>/CA/Rocklin/3327-Jamboree-Dr-95765/home/168188327</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1,277</t>
+          <t>2,989</t>
         </is>
       </c>
     </row>
@@ -2501,32 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
+          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$399,900</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4787-Racetrack-Rd-95677/home/181067386</t>
+          <t>/CA/Rocklin/2410-S-Whitney-Blvd-95677/home/19575199</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>944</t>
         </is>
       </c>
     </row>
@@ -2536,32 +2536,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
+          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$819,000</t>
+          <t>$1,225,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2513-Cowboy-Ct-95765/home/161230226</t>
+          <t>/CA/Rocklin/2225-Wild-Plains-Cir-95765/home/19594539</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2,303</t>
+          <t>4,486</t>
         </is>
       </c>
     </row>
@@ -2571,32 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$905,000</t>
+          <t>$269,990</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1022-Silver-Saddle-Ln-95765/home/19594904</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-308/home/183577717</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3,469</t>
+          <t>1,401</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
+          <t>5505 S Grove #73, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$799,999</t>
+          <t>$179,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5400-Bradall-Ln-95677/home/172233905</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-73/home/109458325</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2,693</t>
+          <t>1,277</t>
         </is>
       </c>
     </row>
@@ -2641,32 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
+          <t>/CA/Rocklin/4787-Racetrack-Rd-95677/home/181067386</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>0.28</t>
         </is>
       </c>
     </row>
@@ -2676,32 +2676,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3709 Sylvan Ct, Rocklin, CA 95765</t>
+          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$1,115,000</t>
+          <t>$819,000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3709-Sylvan-Ct-95765/home/19626346</t>
+          <t>/CA/Rocklin/2513-Cowboy-Ct-95765/home/161230226</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3,462</t>
+          <t>2,303</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$905,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
+          <t>/CA/Rocklin/1022-Silver-Saddle-Ln-95765/home/19594904</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>3,469</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2746,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$990,000</t>
+          <t>$799,999</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
+          <t>/CA/Rocklin/5400-Bradall-Ln-95677/home/172233905</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2,852</t>
+          <t>2,693</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
+          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$1,695,000</t>
+          <t>$1,149,800</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
+          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5,304</t>
+          <t>2,134</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>3709 Sylvan Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$1,115,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
+          <t>/CA/Rocklin/3709-Sylvan-Ct-95765/home/19626346</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>5,023</t>
+          <t>3,462</t>
         </is>
       </c>
     </row>
@@ -2851,32 +2851,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
+          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$634,900</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3319-Stanford-Village-Ct-95765/home/19518112</t>
+          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1,976</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2886,32 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$1,116,428</t>
+          <t>$990,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
+          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3,309</t>
+          <t>2,852</t>
         </is>
       </c>
     </row>
@@ -2921,32 +2921,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$1,695,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
+          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>5,304</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
+          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$1,398,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
+          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4,162</t>
+          <t>5,023</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2991,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4421 Winners Cir, Rocklin, CA 95677</t>
+          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$519,000</t>
+          <t>$634,900</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
+          <t>/CA/Rocklin/3319-Stanford-Village-Ct-95765/home/19518112</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1,161</t>
+          <t>1,976</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
+          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$1,116,428</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
+          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2,070</t>
+          <t>3,309</t>
         </is>
       </c>
     </row>
@@ -3061,32 +3061,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
+          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3804-Calverhall-Way-95677/home/54603705</t>
+          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3,803</t>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -3096,32 +3096,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
+          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$139,500</t>
+          <t>$1,398,000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
+          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1,363</t>
+          <t>4,162</t>
         </is>
       </c>
     </row>
@@ -3131,17 +3131,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
+          <t>4421 Winners Cir, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$139,000</t>
+          <t>$519,000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
+          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>1,161</t>
         </is>
       </c>
     </row>
@@ -3166,32 +3166,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
+          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$653,000</t>
+          <t>$735,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
+          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>2,070</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
+          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$1,000,000</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
+          <t>/CA/Rocklin/3804-Calverhall-Way-95677/home/54603705</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2,773</t>
+          <t>3,803</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>240 Nerissa Ct, Roseville, CA 95661</t>
+          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$529,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
+          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3,716</t>
+          <t>1,324</t>
         </is>
       </c>
     </row>
@@ -3271,17 +3271,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5642 Miners Cir, Rocklin, CA 95765</t>
+          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$499,900</t>
+          <t>$599,900</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
+          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1,251</t>
+          <t>1,706</t>
         </is>
       </c>
     </row>
@@ -3306,32 +3306,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
+          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$653,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
+          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3,381</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -3341,32 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
+          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$900,000</t>
+          <t>$1,000,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
+          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3,062</t>
+          <t>2,773</t>
         </is>
       </c>
     </row>
@@ -3376,32 +3376,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
+          <t>240 Nerissa Ct, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
+          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3,939</t>
+          <t>3,716</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4912 Charter Rd, Rocklin, CA 95765</t>
+          <t>5642 Miners Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$499,900</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
+          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>1,251</t>
         </is>
       </c>
     </row>
@@ -3446,32 +3446,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
+          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$284,128</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
+          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>3,381</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
+          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$819,900</t>
+          <t>$900,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
+          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>3,062</t>
         </is>
       </c>
     </row>
@@ -3516,22 +3516,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4357 Leisa Ln, Penryn, CA 95663</t>
+          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$1,299,950</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
+          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2,678</t>
+          <t>3,939</t>
         </is>
       </c>
     </row>
@@ -3551,17 +3551,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
+          <t>4912 Charter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
+          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3,332</t>
+          <t>2,281</t>
         </is>
       </c>
     </row>
@@ -3586,17 +3586,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$951,075</t>
+          <t>$284,128</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
+          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3606,12 +3606,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>1,050</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
+          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$118,555</t>
+          <t>$819,900</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
+          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
+          <t>4357 Leisa Ln, Penryn, CA 95663</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$1,299,950</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
+          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1,814</t>
+          <t>2,678</t>
         </is>
       </c>
     </row>
@@ -3691,22 +3691,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
+          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$999,900</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
+          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3,252</t>
+          <t>3,332</t>
         </is>
       </c>
     </row>
@@ -3726,22 +3726,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3316 Wickenby Way, Roseville, CA 95661</t>
+          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$951,075</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Roseville/3316-Wickenby-Way-95661/home/19627174</t>
+          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5240 Paragon St, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$695,000</t>
+          <t>$118,555</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>960</t>
         </is>
       </c>
     </row>
@@ -3796,32 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
+          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
+          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>1,814</t>
         </is>
       </c>
     </row>
@@ -3831,32 +3831,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3260 Midas Ave, Rocklin, CA 95677</t>
+          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$999,900</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
+          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>3,252</t>
         </is>
       </c>
     </row>
@@ -3866,32 +3866,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3519 Willard Way, Rocklin, CA 95677</t>
+          <t>3316 Wickenby Way, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$560,000</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
+          <t>/CA/Roseville/3316-Wickenby-Way-95661/home/19627174</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1,694</t>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -3901,17 +3901,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
+          <t>5240 Paragon St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$965,000</t>
+          <t>$695,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
+          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3,382</t>
+          <t>1,482</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2240 Abby Rd, Rocklin, CA 95765</t>
+          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$1,148,000</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
+          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3,363</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -3971,17 +3971,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
+          <t>3260 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
+          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -4006,17 +4006,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
+          <t>3519 Willard Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$649,888</t>
+          <t>$560,000</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
+          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1,947</t>
+          <t>1,694</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4041,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
+          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$799,900</t>
+          <t>$965,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
+          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>3,382</t>
         </is>
       </c>
     </row>
@@ -4076,22 +4076,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
+          <t>2240 Abby Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$1,148,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
+          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>4,532</t>
+          <t>3,363</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
+          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$1,595,000</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
+          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -4146,32 +4146,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
+          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$949,000</t>
+          <t>$649,888</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
+          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>1,947</t>
         </is>
       </c>
     </row>
@@ -4181,32 +4181,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
+          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$449,000</t>
+          <t>$799,900</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2720-Angeles-Ct-95677/home/19576869</t>
+          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1,544</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
+          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$899,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
+          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3,043</t>
+          <t>4,532</t>
         </is>
       </c>
     </row>
@@ -4251,32 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
+          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$149,999</t>
+          <t>$1,595,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
+          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>4,421</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2308 Egret Ct, Rocklin, CA 95765</t>
+          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$733,000</t>
+          <t>$949,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
+          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3,059</t>
+          <t>3,771</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$449,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
+          <t>/CA/Rocklin/2720-Angeles-Ct-95677/home/19576869</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>1,544</t>
         </is>
       </c>
     </row>
@@ -4356,32 +4356,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
+          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$328,000</t>
+          <t>$899,000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
+          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>3,043</t>
         </is>
       </c>
     </row>
@@ -4391,17 +4391,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>8821 Cortina Cir, Roseville, CA 95678</t>
+          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$469,995</t>
+          <t>$149,999</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1,271</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -4426,32 +4426,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
+          <t>2308 Egret Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$405,000</t>
+          <t>$733,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6570-Hearthstone-Cir-95677/unit-1413/home/19596416</t>
+          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1,195</t>
+          <t>3,059</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$659,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2,128</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>
@@ -4496,32 +4496,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5649 Black Willow St, Rocklin, CA 95677</t>
+          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$328,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
+          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>816</t>
         </is>
       </c>
     </row>
@@ -4531,32 +4531,102 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
+          <t>8821 Cortina Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$469,995</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Roseville/6884-Cherry-Ridge-Cir-95678/home/19009694</t>
+          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3,121</t>
+          <t>1,271</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>$405,000</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>/CA/Rocklin/6570-Hearthstone-Cir-95677/unit-1413/home/19596416</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1,195</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>$659,000</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2,128</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Rocklin_data.xlsx
+++ b/Zillow_API/Rocklin_data.xlsx
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
+          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$139,500</t>
+          <t>$1,175,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
+          <t>/CA/Rocklin/3804-Calverhall-Way-95677/home/54603705</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1,363</t>
+          <t>3,803</t>
         </is>
       </c>
     </row>
@@ -506,22 +506,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
+          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$139,000</t>
+          <t>$139,500</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
+          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>1,363</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
+          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,299,500</t>
+          <t>$139,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
+          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4,332</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$1,299,500</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
+          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3,828</t>
+          <t>4,332</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
+          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,008,930</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
+          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3,287</t>
+          <t>3,828</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6812 Camborne Way, Rocklin, CA 95677</t>
+          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$985,000</t>
+          <t>$1,008,930</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
+          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3,656</t>
+          <t>3,287</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>6812 Camborne Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$985,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>3,656</t>
         </is>
       </c>
     </row>
@@ -716,32 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$399,999</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -751,32 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,119,990</t>
+          <t>$399,999</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
+          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,741</t>
+          <t>0.77</t>
         </is>
       </c>
     </row>
@@ -786,17 +786,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$1,119,990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>2,741</t>
         </is>
       </c>
     </row>
@@ -821,32 +821,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -856,32 +856,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -891,32 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$869,990</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,356</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -926,32 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5505 S Grove St #5, Rocklin, CA 95677</t>
+          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$135,000</t>
+          <t>$869,990</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-5/home/173451265</t>
+          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1,082</t>
+          <t>2,356</t>
         </is>
       </c>
     </row>
@@ -1836,32 +1836,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5649 Black Willow St, Rocklin, CA 95677</t>
+          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$328,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
+          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>816</t>
         </is>
       </c>
     </row>
@@ -1871,32 +1871,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
+          <t>8821 Cortina Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$469,995</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/CA/Roseville/6884-Cherry-Ridge-Cir-95678/home/19009694</t>
+          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3,121</t>
+          <t>1,271</t>
         </is>
       </c>
     </row>
@@ -1906,32 +1906,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
+          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$549,000</t>
+          <t>$405,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3408-Stoney-Rd-95765/home/19517823</t>
+          <t>/CA/Rocklin/6570-Hearthstone-Cir-95677/unit-1413/home/19596416</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1,577</t>
+          <t>1,195</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4230 Midas Ave, Rocklin, CA 95677</t>
+          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$689,000</t>
+          <t>$659,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4230-Midas-Ave-95677/home/19571810</t>
+          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2,128</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
+          <t>5649 Black Willow St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$999,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2402-Leafy-Way-Ct-95765/home/19594515</t>
+          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3,888</t>
+          <t>2,300</t>
         </is>
       </c>
     </row>
@@ -2011,32 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
+          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$1,148,500</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3381-Black-Oak-Dr-95765/home/19624984</t>
+          <t>/CA/Roseville/6884-Cherry-Ridge-Cir-95678/home/19009694</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3,462</t>
+          <t>3,121</t>
         </is>
       </c>
     </row>
@@ -2046,17 +2046,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
+          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$459,000</t>
+          <t>$549,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5804-Meadowdale-Ct-95677/home/19577790</t>
+          <t>/CA/Rocklin/3408-Stoney-Rd-95765/home/19517823</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1,577</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
+          <t>4230 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$689,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2930-Dry-Gulch-Ct-95677/home/19571947</t>
+          <t>/CA/Rocklin/4230-Midas-Ave-95677/home/19571810</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3,145</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2803 Executive Ct, Rocklin, CA 95765</t>
+          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$999,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2803-Executive-Ct-95765/home/19633352</t>
+          <t>/CA/Rocklin/2402-Leafy-Way-Ct-95765/home/19594515</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1,206</t>
+          <t>3,888</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4405 Rocky Top Ct, Rocklin, CA 95765</t>
+          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$1,356,995</t>
+          <t>$1,148,500</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4405-Rocky-Top-Ct-95677/home/180666841</t>
+          <t>/CA/Rocklin/3381-Black-Oak-Dr-95765/home/19624984</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3,837</t>
+          <t>3,462</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
+          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$1,378,000</t>
+          <t>$459,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4630-Ravine-Crossing-Ct-95677/home/19592177</t>
+          <t>/CA/Rocklin/5804-Meadowdale-Ct-95677/home/19577790</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3,466</t>
+          <t>986</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
+          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2504-Anvil-Ct-95765/home/19588484</t>
+          <t>/CA/Rocklin/2930-Dry-Gulch-Ct-95677/home/19571947</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3,624</t>
+          <t>3,145</t>
         </is>
       </c>
     </row>
@@ -2256,32 +2256,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>2803 Executive Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$1,124,800</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2532-Clubhouse-Dr-W-95765/home/19643217</t>
+          <t>/CA/Rocklin/2803-Executive-Ct-95765/home/19633352</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3,607</t>
+          <t>1,206</t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
+          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$1,378,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4344-Lakebreeze-Dr-95677/home/19609032</t>
+          <t>/CA/Rocklin/4630-Ravine-Crossing-Ct-95677/home/19592177</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3,113</t>
+          <t>3,466</t>
         </is>
       </c>
     </row>
@@ -2326,22 +2326,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4180 Dias Ln, Rocklin, CA 95677</t>
+          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4180-Dias-Ln-95677/home/173208546</t>
+          <t>/CA/Rocklin/2504-Anvil-Ct-95765/home/19588484</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>3,624</t>
         </is>
       </c>
     </row>
@@ -2361,17 +2361,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
+          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$1,124,800</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/CA/Roseville/6792-Maple-Creek-Dr-95678/home/19628751</t>
+          <t>/CA/Rocklin/2532-Clubhouse-Dr-W-95765/home/19643217</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2,538</t>
+          <t>3,607</t>
         </is>
       </c>
     </row>
@@ -2396,32 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3934 Rawhide, Rocklin, CA 95677</t>
+          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$270,000</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3934-Rawhide-Rd-95677/home/77488096</t>
+          <t>/CA/Rocklin/4344-Lakebreeze-Dr-95677/home/19609032</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3,113</t>
         </is>
       </c>
     </row>
@@ -2431,22 +2431,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>924 Cougar Ct, Rocklin, CA 95765</t>
+          <t>4180 Dias Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/924-Cougar-Ct-95765/home/19595217</t>
+          <t>/CA/Rocklin/4180-Dias-Ln-95677/home/173208546</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3,163</t>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -2466,17 +2466,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$1,099,359</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3327-Jamboree-Dr-95765/home/168188327</t>
+          <t>/CA/Roseville/6792-Maple-Creek-Dr-95678/home/19628751</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2,989</t>
+          <t>2,538</t>
         </is>
       </c>
     </row>
@@ -2501,32 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
+          <t>3934 Rawhide, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$399,900</t>
+          <t>$270,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2410-S-Whitney-Blvd-95677/home/19575199</t>
+          <t>/CA/Rocklin/3934-Rawhide-Rd-95677/home/77488096</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>0.85</t>
         </is>
       </c>
     </row>
@@ -2536,17 +2536,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>924 Cougar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$1,225,000</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2225-Wild-Plains-Cir-95765/home/19594539</t>
+          <t>/CA/Rocklin/924-Cougar-Ct-95765/home/19595217</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2556,12 +2556,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4,486</t>
+          <t>3,163</t>
         </is>
       </c>
     </row>
@@ -2571,32 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
+          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$269,990</t>
+          <t>$1,099,359</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-308/home/183577717</t>
+          <t>/CA/Rocklin/3327-Jamboree-Dr-95765/home/168188327</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1,401</t>
+          <t>2,989</t>
         </is>
       </c>
     </row>
@@ -2606,17 +2606,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5505 S Grove #73, Rocklin, CA 95677</t>
+          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$179,000</t>
+          <t>$399,900</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-73/home/109458325</t>
+          <t>/CA/Rocklin/2410-S-Whitney-Blvd-95677/home/19575199</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1,277</t>
+          <t>944</t>
         </is>
       </c>
     </row>
@@ -2641,32 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
+          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$1,225,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4787-Racetrack-Rd-95677/home/181067386</t>
+          <t>/CA/Rocklin/2225-Wild-Plains-Cir-95765/home/19594539</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>4,486</t>
         </is>
       </c>
     </row>
@@ -2676,32 +2676,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$819,000</t>
+          <t>$269,990</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2513-Cowboy-Ct-95765/home/161230226</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-308/home/183577717</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2,303</t>
+          <t>1,401</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
+          <t>5505 S Grove #73, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$905,000</t>
+          <t>$179,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1022-Silver-Saddle-Ln-95765/home/19594904</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-73/home/109458325</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3,469</t>
+          <t>1,277</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
+          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$799,999</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5400-Bradall-Ln-95677/home/172233905</t>
+          <t>/CA/Rocklin/4787-Racetrack-Rd-95677/home/181067386</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2,693</t>
+          <t>0.28</t>
         </is>
       </c>
     </row>
@@ -2781,17 +2781,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4138 Creek Bank Ct, Rocklin, CA 95765</t>
+          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$1,149,800</t>
+          <t>$819,000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4138-Creek-Bank-Ct-95765/home/180662065</t>
+          <t>/CA/Rocklin/2513-Cowboy-Ct-95765/home/161230226</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2,134</t>
+          <t>2,303</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3709 Sylvan Ct, Rocklin, CA 95765</t>
+          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$1,115,000</t>
+          <t>$905,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3709-Sylvan-Ct-95765/home/19626346</t>
+          <t>/CA/Rocklin/1022-Silver-Saddle-Ln-95765/home/19594904</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3,462</t>
+          <t>3,469</t>
         </is>
       </c>
     </row>
@@ -2851,17 +2851,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$799,999</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
+          <t>/CA/Rocklin/5400-Bradall-Ln-95677/home/172233905</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,693</t>
         </is>
       </c>
     </row>
@@ -2886,32 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>3709 Sylvan Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$990,000</t>
+          <t>$1,115,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
+          <t>/CA/Rocklin/3709-Sylvan-Ct-95765/home/19626346</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2,852</t>
+          <t>3,462</t>
         </is>
       </c>
     </row>
@@ -2921,32 +2921,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
+          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$1,695,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
+          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5,304</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$990,000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
+          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5,023</t>
+          <t>2,852</t>
         </is>
       </c>
     </row>
@@ -2991,32 +2991,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3319 Stanford Village Ct, Rocklin, CA 95765</t>
+          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$634,900</t>
+          <t>$1,695,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3319-Stanford-Village-Ct-95765/home/19518112</t>
+          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1,976</t>
+          <t>5,304</t>
         </is>
       </c>
     </row>
@@ -3026,22 +3026,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$1,116,428</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
+          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3,309</t>
+          <t>5,023</t>
         </is>
       </c>
     </row>
@@ -3061,32 +3061,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$1,116,428</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
+          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>3,309</t>
         </is>
       </c>
     </row>
@@ -3096,22 +3096,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
+          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$1,398,000</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
+          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4,162</t>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -3131,32 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4421 Winners Cir, Rocklin, CA 95677</t>
+          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$519,000</t>
+          <t>$1,299,000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
+          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1,161</t>
+          <t>4,162</t>
         </is>
       </c>
     </row>
@@ -3166,22 +3166,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
+          <t>4421 Winners Cir, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$519,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
+          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2,070</t>
+          <t>1,161</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
+          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$735,000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3804-Calverhall-Way-95677/home/54603705</t>
+          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3,803</t>
+          <t>2,070</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
+          <t>5938 Blackstone Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$529,000</t>
+          <t>$650,000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
+          <t>/CA/Rocklin/5938-Blackstone-Dr-95765/home/19519927</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1,324</t>
+          <t>2,056</t>
         </is>
       </c>
     </row>
@@ -3271,17 +3271,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
+          <t>6164 Lonetree Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$599,900</t>
+          <t>$478,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
+          <t>/CA/Rocklin/6164-Lonetree-Blvd-95765/home/19592639</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1,706</t>
+          <t>1,847</t>
         </is>
       </c>
     </row>
@@ -3306,32 +3306,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
+          <t>5988 Willowynd Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$653,000</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
+          <t>/CA/Rocklin/5988-Willowynd-Dr-95677/home/19576826</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>1,740</t>
         </is>
       </c>
     </row>
@@ -3341,32 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
+          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$1,000,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
+          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2,773</t>
+          <t>2,312</t>
         </is>
       </c>
     </row>
@@ -3376,32 +3376,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>240 Nerissa Ct, Roseville, CA 95661</t>
+          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$529,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
+          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3,716</t>
+          <t>1,324</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5642 Miners Cir, Rocklin, CA 95765</t>
+          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$499,900</t>
+          <t>$599,900</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
+          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1,251</t>
+          <t>1,706</t>
         </is>
       </c>
     </row>
@@ -3446,32 +3446,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
+          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$653,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
+          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3,381</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
+          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$900,000</t>
+          <t>$1,000,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
+          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3,062</t>
+          <t>2,773</t>
         </is>
       </c>
     </row>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
+          <t>240 Nerissa Ct, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
+          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3,939</t>
+          <t>3,716</t>
         </is>
       </c>
     </row>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4912 Charter Rd, Rocklin, CA 95765</t>
+          <t>5642 Miners Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$499,900</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
+          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>1,251</t>
         </is>
       </c>
     </row>
@@ -3586,32 +3586,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
+          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$284,128</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
+          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>3,381</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
+          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$819,900</t>
+          <t>$900,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
+          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>3,062</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3656,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4357 Leisa Ln, Penryn, CA 95663</t>
+          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$1,299,950</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
+          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2,678</t>
+          <t>3,939</t>
         </is>
       </c>
     </row>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
+          <t>4912 Charter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
+          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3711,12 +3711,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3,332</t>
+          <t>2,281</t>
         </is>
       </c>
     </row>
@@ -3726,17 +3726,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$951,075</t>
+          <t>$284,128</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
+          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3746,12 +3746,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>1,050</t>
         </is>
       </c>
     </row>
@@ -3761,32 +3761,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
+          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$118,555</t>
+          <t>$819,900</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
+          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3796,32 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
+          <t>4357 Leisa Ln, Penryn, CA 95663</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$1,299,950</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
+          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1,814</t>
+          <t>2,678</t>
         </is>
       </c>
     </row>
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
+          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$999,900</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
+          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3,252</t>
+          <t>3,332</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3316 Wickenby Way, Roseville, CA 95661</t>
+          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$951,075</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Roseville/3316-Wickenby-Way-95661/home/19627174</t>
+          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -3901,22 +3901,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5240 Paragon St, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$695,000</t>
+          <t>$118,555</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>960</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
+          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
+          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>1,814</t>
         </is>
       </c>
     </row>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3260 Midas Ave, Rocklin, CA 95677</t>
+          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$999,900</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
+          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>3,252</t>
         </is>
       </c>
     </row>
@@ -4006,32 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3519 Willard Way, Rocklin, CA 95677</t>
+          <t>3316 Wickenby Way, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$560,000</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
+          <t>/CA/Roseville/3316-Wickenby-Way-95661/home/19627174</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1,694</t>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4041,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
+          <t>5240 Paragon St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$965,000</t>
+          <t>$695,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
+          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3,382</t>
+          <t>1,482</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2240 Abby Rd, Rocklin, CA 95765</t>
+          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$1,148,000</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
+          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3,363</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
+          <t>3260 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
+          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -4146,17 +4146,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
+          <t>3519 Willard Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$649,888</t>
+          <t>$560,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
+          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1,947</t>
+          <t>1,694</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
+          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$799,900</t>
+          <t>$965,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
+          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>3,382</t>
         </is>
       </c>
     </row>
@@ -4216,22 +4216,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
+          <t>2240 Abby Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$1,148,000</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
+          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4,532</t>
+          <t>3,363</t>
         </is>
       </c>
     </row>
@@ -4251,22 +4251,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
+          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$1,595,000</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
+          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -4286,32 +4286,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
+          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$949,000</t>
+          <t>$649,888</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
+          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>1,947</t>
         </is>
       </c>
     </row>
@@ -4321,32 +4321,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
+          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$449,000</t>
+          <t>$799,900</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2720-Angeles-Ct-95677/home/19576869</t>
+          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1,544</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -4356,32 +4356,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
+          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$899,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
+          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>3,043</t>
+          <t>4,532</t>
         </is>
       </c>
     </row>
@@ -4391,32 +4391,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
+          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$149,999</t>
+          <t>$1,595,000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
+          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>4,421</t>
         </is>
       </c>
     </row>
@@ -4426,22 +4426,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2308 Egret Ct, Rocklin, CA 95765</t>
+          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$733,000</t>
+          <t>$949,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
+          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3,059</t>
+          <t>3,771</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
+          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$449,000</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
+          <t>/CA/Rocklin/2720-Angeles-Ct-95677/home/19576869</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2,016</t>
+          <t>1,544</t>
         </is>
       </c>
     </row>
@@ -4496,32 +4496,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
+          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$328,000</t>
+          <t>$899,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
+          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>3,043</t>
         </is>
       </c>
     </row>
@@ -4531,17 +4531,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>8821 Cortina Cir, Roseville, CA 95678</t>
+          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$469,995</t>
+          <t>$149,999</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1,271</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -4566,32 +4566,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
+          <t>2308 Egret Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$405,000</t>
+          <t>$733,000</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6570-Hearthstone-Cir-95677/unit-1413/home/19596416</t>
+          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1,195</t>
+          <t>3,059</t>
         </is>
       </c>
     </row>
@@ -4601,17 +4601,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$659,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2,128</t>
+          <t>2,016</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Rocklin_data.xlsx
+++ b/Zillow_API/Rocklin_data.xlsx
@@ -3236,32 +3236,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5938 Blackstone Dr, Rocklin, CA 95765</t>
+          <t>1025 Bent Oak Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$650,000</t>
+          <t>$1,579,900</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5938-Blackstone-Dr-95765/home/19519927</t>
+          <t>/CA/Rocklin/1025-Bent-Oak-Ln-95765/home/173208159</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2,056</t>
+          <t>3,590</t>
         </is>
       </c>
     </row>
@@ -3271,17 +3271,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6164 Lonetree Blvd, Rocklin, CA 95765</t>
+          <t>5556 Sage Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$478,000</t>
+          <t>$600,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6164-Lonetree-Blvd-95765/home/19592639</t>
+          <t>/CA/Rocklin/5556-Sage-Dr-95765/home/19517056</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1,847</t>
+          <t>1,735</t>
         </is>
       </c>
     </row>
@@ -3306,22 +3306,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5988 Willowynd Dr, Rocklin, CA 95677</t>
+          <t>5938 Blackstone Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$650,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5988-Willowynd-Dr-95677/home/19576826</t>
+          <t>/CA/Rocklin/5938-Blackstone-Dr-95765/home/19519927</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1,740</t>
+          <t>2,056</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
+          <t>6164 Lonetree Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$478,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
+          <t>/CA/Rocklin/6164-Lonetree-Blvd-95765/home/19592639</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2,312</t>
+          <t>1,847</t>
         </is>
       </c>
     </row>
@@ -3376,22 +3376,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
+          <t>5988 Willowynd Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$529,000</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
+          <t>/CA/Rocklin/5988-Willowynd-Dr-95677/home/19576826</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,324</t>
+          <t>1,740</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
+          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$599,900</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
+          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1,706</t>
+          <t>2,312</t>
         </is>
       </c>
     </row>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
+          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$653,000</t>
+          <t>$529,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
+          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>1,324</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
+          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$1,000,000</t>
+          <t>$599,900</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
+          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2,773</t>
+          <t>1,706</t>
         </is>
       </c>
     </row>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>240 Nerissa Ct, Roseville, CA 95661</t>
+          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$653,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
+          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3,716</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5642 Miners Cir, Rocklin, CA 95765</t>
+          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$499,900</t>
+          <t>$1,000,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
+          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1,251</t>
+          <t>2,773</t>
         </is>
       </c>
     </row>
@@ -3586,17 +3586,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
+          <t>240 Nerissa Ct, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
+          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3606,12 +3606,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3,381</t>
+          <t>3,716</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
+          <t>5642 Miners Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$900,000</t>
+          <t>$499,900</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
+          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3,062</t>
+          <t>1,251</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
+          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
+          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3,939</t>
+          <t>3,381</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4912 Charter Rd, Rocklin, CA 95765</t>
+          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$900,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
+          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>3,062</t>
         </is>
       </c>
     </row>
@@ -3726,32 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
+          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$284,128</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
+          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>3,939</t>
         </is>
       </c>
     </row>
@@ -3761,32 +3761,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
+          <t>4912 Charter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$819,900</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
+          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>2,281</t>
         </is>
       </c>
     </row>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4357 Leisa Ln, Penryn, CA 95663</t>
+          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$1,299,950</t>
+          <t>$284,128</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
+          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3816,12 +3816,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2,678</t>
+          <t>1,050</t>
         </is>
       </c>
     </row>
@@ -3831,32 +3831,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
+          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$819,900</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
+          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3,332</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>4357 Leisa Ln, Penryn, CA 95663</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$951,075</t>
+          <t>$1,299,950</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
+          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>2,678</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
+          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$118,555</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
+          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>3,332</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
+          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$951,075</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
+          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1,814</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$999,900</t>
+          <t>$118,555</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>3,252</t>
+          <t>960</t>
         </is>
       </c>
     </row>
@@ -4006,32 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3316 Wickenby Way, Roseville, CA 95661</t>
+          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Roseville/3316-Wickenby-Way-95661/home/19627174</t>
+          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>1,814</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5240 Paragon St, Rocklin, CA 95677</t>
+          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$695,000</t>
+          <t>$999,900</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
+          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>3,252</t>
         </is>
       </c>
     </row>
@@ -4076,17 +4076,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
+          <t>5240 Paragon St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$695,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
+          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>1,482</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3260 Midas Ave, Rocklin, CA 95677</t>
+          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
+          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -4146,17 +4146,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3519 Willard Way, Rocklin, CA 95677</t>
+          <t>3260 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$560,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
+          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1,694</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
+          <t>3519 Willard Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$965,000</t>
+          <t>$560,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
+          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3,382</t>
+          <t>1,694</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4216,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2240 Abby Rd, Rocklin, CA 95765</t>
+          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$1,148,000</t>
+          <t>$965,000</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
+          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3,363</t>
+          <t>3,382</t>
         </is>
       </c>
     </row>
@@ -4251,32 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
+          <t>2240 Abby Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$1,148,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
+          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>3,363</t>
         </is>
       </c>
     </row>
@@ -4286,17 +4286,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
+          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$649,888</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
+          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1,947</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
+          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$799,900</t>
+          <t>$649,888</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
+          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>1,947</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4356,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
+          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$799,900</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
+          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>4,532</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -4391,32 +4391,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
+          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$1,595,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
+          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>4,532</t>
         </is>
       </c>
     </row>
@@ -4426,17 +4426,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
+          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$949,000</t>
+          <t>$1,595,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
+          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4446,12 +4446,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>4,421</t>
         </is>
       </c>
     </row>
@@ -4461,32 +4461,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2720 Angeles Ct, Rocklin, CA 95677</t>
+          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$449,000</t>
+          <t>$949,000</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2720-Angeles-Ct-95677/home/19576869</t>
+          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1,544</t>
+          <t>3,771</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Rocklin_data.xlsx
+++ b/Zillow_API/Rocklin_data.xlsx
@@ -3236,32 +3236,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1025 Bent Oak Ln, Rocklin, CA 95765</t>
+          <t>2814 Springfield Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$1,579,900</t>
+          <t>$542,500</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1025-Bent-Oak-Ln-95765/home/173208159</t>
+          <t>/CA/Rocklin/2814-Springfield-Dr-95765/home/19518661</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3,590</t>
+          <t>1,685</t>
         </is>
       </c>
     </row>
@@ -3271,32 +3271,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5556 Sage Dr, Rocklin, CA 95765</t>
+          <t>1025 Bent Oak Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$600,000</t>
+          <t>$1,579,900</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5556-Sage-Dr-95765/home/19517056</t>
+          <t>/CA/Rocklin/1025-Bent-Oak-Ln-95765/home/173208159</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1,735</t>
+          <t>3,590</t>
         </is>
       </c>
     </row>
@@ -3306,32 +3306,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5938 Blackstone Dr, Rocklin, CA 95765</t>
+          <t>5556 Sage Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$650,000</t>
+          <t>$600,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5938-Blackstone-Dr-95765/home/19519927</t>
+          <t>/CA/Rocklin/5556-Sage-Dr-95765/home/19517056</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2,056</t>
+          <t>1,735</t>
         </is>
       </c>
     </row>
@@ -3341,22 +3341,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6164 Lonetree Blvd, Rocklin, CA 95765</t>
+          <t>5938 Blackstone Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$478,000</t>
+          <t>$650,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6164-Lonetree-Blvd-95765/home/19592639</t>
+          <t>/CA/Rocklin/5938-Blackstone-Dr-95765/home/19519927</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1,847</t>
+          <t>2,056</t>
         </is>
       </c>
     </row>
@@ -3376,22 +3376,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5988 Willowynd Dr, Rocklin, CA 95677</t>
+          <t>6164 Lonetree Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$478,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5988-Willowynd-Dr-95677/home/19576826</t>
+          <t>/CA/Rocklin/6164-Lonetree-Blvd-95765/home/19592639</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,740</t>
+          <t>1,847</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
+          <t>5988 Willowynd Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
+          <t>/CA/Rocklin/5988-Willowynd-Dr-95677/home/19576826</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2,312</t>
+          <t>1,740</t>
         </is>
       </c>
     </row>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
+          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$529,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
+          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1,324</t>
+          <t>2,312</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
+          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$599,900</t>
+          <t>$529,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
+          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1,706</t>
+          <t>1,324</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
+          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$653,000</t>
+          <t>$599,900</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
+          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>1,706</t>
         </is>
       </c>
     </row>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
+          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$1,000,000</t>
+          <t>$653,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
+          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2,773</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -3586,17 +3586,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>240 Nerissa Ct, Roseville, CA 95661</t>
+          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$1,000,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
+          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3606,12 +3606,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3,716</t>
+          <t>2,773</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5642 Miners Cir, Rocklin, CA 95765</t>
+          <t>240 Nerissa Ct, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$499,900</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
+          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1,251</t>
+          <t>3,716</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
+          <t>5642 Miners Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$499,900</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
+          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3,381</t>
+          <t>1,251</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
+          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$900,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
+          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3,062</t>
+          <t>3,381</t>
         </is>
       </c>
     </row>
@@ -3726,32 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
+          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$900,000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
+          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3,939</t>
+          <t>3,062</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4912 Charter Rd, Rocklin, CA 95765</t>
+          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
+          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>3,939</t>
         </is>
       </c>
     </row>
@@ -3796,32 +3796,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
+          <t>4912 Charter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$284,128</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
+          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>2,281</t>
         </is>
       </c>
     </row>
@@ -3831,17 +3831,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
+          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$819,900</t>
+          <t>$284,128</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
+          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>1,050</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4357 Leisa Ln, Penryn, CA 95663</t>
+          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$1,299,950</t>
+          <t>$819,900</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
+          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,678</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
+          <t>4357 Leisa Ln, Penryn, CA 95663</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$1,299,950</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
+          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3,332</t>
+          <t>2,678</t>
         </is>
       </c>
     </row>
@@ -3936,32 +3936,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$951,075</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
+          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>3,332</t>
         </is>
       </c>
     </row>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
+          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$118,555</t>
+          <t>$951,075</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
+          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -4006,17 +4006,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$118,555</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1,814</t>
+          <t>960</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
+          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$999,900</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
+          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3,252</t>
+          <t>1,814</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5240 Paragon St, Rocklin, CA 95677</t>
+          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$695,000</t>
+          <t>$949,900</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
+          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>3,252</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
+          <t>5240 Paragon St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$695,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
+          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>1,482</t>
         </is>
       </c>
     </row>
@@ -4146,17 +4146,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3260 Midas Ave, Rocklin, CA 95677</t>
+          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
+          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3519 Willard Way, Rocklin, CA 95677</t>
+          <t>3260 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$560,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
+          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1,694</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -4216,17 +4216,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
+          <t>3519 Willard Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$965,000</t>
+          <t>$560,000</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
+          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3,382</t>
+          <t>1,694</t>
         </is>
       </c>
     </row>
@@ -4251,32 +4251,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2240 Abby Rd, Rocklin, CA 95765</t>
+          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$1,148,000</t>
+          <t>$965,000</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
+          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3,363</t>
+          <t>3,382</t>
         </is>
       </c>
     </row>
@@ -4286,32 +4286,32 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
+          <t>2240 Abby Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$1,148,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
+          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>3,363</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
+          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$649,888</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
+          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4341,12 +4341,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1,947</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4356,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
+          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$799,900</t>
+          <t>$649,888</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
+          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>1,947</t>
         </is>
       </c>
     </row>
@@ -4391,17 +4391,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
+          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$799,900</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
+          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4,532</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -4426,32 +4426,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
+          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$1,595,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
+          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>4,532</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
+          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$949,000</t>
+          <t>$1,595,000</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
+          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4481,12 +4481,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>4,421</t>
         </is>
       </c>
     </row>
@@ -4496,32 +4496,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
+          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$899,000</t>
+          <t>$949,000</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
+          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3,043</t>
+          <t>3,771</t>
         </is>
       </c>
     </row>
@@ -4531,32 +4531,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
+          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$149,999</t>
+          <t>$899,000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
+          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>3,043</t>
         </is>
       </c>
     </row>
@@ -4566,32 +4566,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2308 Egret Ct, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$733,000</t>
+          <t>$149,999</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>3,059</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>

--- a/Zillow_API/Rocklin_data.xlsx
+++ b/Zillow_API/Rocklin_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3804 Calverhall Way, Rocklin, CA 95677</t>
+          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,175,000</t>
+          <t>$1,299,500</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3804-Calverhall-Way-95677/home/54603705</t>
+          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3,803</t>
+          <t>4,332</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
+          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$139,500</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
+          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,363</t>
+          <t>3,828</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
+          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$139,000</t>
+          <t>$1,008,930</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
+          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>3,287</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4625 E Imperial View Ct, Rocklin, CA 95677</t>
+          <t>6812 Camborne Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,299,500</t>
+          <t>$985,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4625-E-Imperial-View-Ct-95677/home/19628461</t>
+          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4,332</t>
+          <t>3,656</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2210 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>4139 Peters Way, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$1,069,990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2210-Wild-Plains-Cir-95765/home/19594932</t>
+          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3,828</t>
+          <t>2,243</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5691 Brookshire Ct, Rocklin, CA 95677</t>
+          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,008,930</t>
+          <t>$399,999</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5691-Brookshire-Ct-95677/home/185540276</t>
+          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3,287</t>
+          <t>0.77</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6812 Camborne Way, Rocklin, CA 95677</t>
+          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$985,000</t>
+          <t>$1,119,990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6812-Camborne-Way-95677/home/19010742</t>
+          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3,656</t>
+          <t>2,741</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4139 Peters Way, Rocklin, CA 95765</t>
+          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,069,990</t>
+          <t>$1,449,990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4139-Peters-Way-95765/home/180662041</t>
+          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2,243</t>
+          <t>2,925</t>
         </is>
       </c>
     </row>
@@ -751,32 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3962 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$399,999</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3962-Rawhide-Rd-95677/home/19570234</t>
+          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2,911</t>
         </is>
       </c>
     </row>
@@ -786,32 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1222 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,119,990</t>
+          <t>$1,659,990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1222-Buck-Ridge-Dr-95765/home/180661669</t>
+          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,741</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -821,32 +821,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2321 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,449,990</t>
+          <t>$869,990</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Ranch-View-Ct-95765/home/173208052</t>
+          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,925</t>
+          <t>2,356</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2319 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -866,22 +866,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2319-Ranch-View-Ct-95765/home/173208051</t>
+          <t>/CA/Rocklin/2316-Ranch-View-Dr-95765/home/173208060</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2,911</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -891,32 +891,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2323 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$1,659,990</t>
+          <t>$1,049,438</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2323-Ranch-View-Ct-95765/home/173208053</t>
+          <t>/CA/Rocklin/3325-Jamboree-Dr-95765/home/168188328</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>2,806</t>
         </is>
       </c>
     </row>
@@ -926,32 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>491 Red Sand Ct, Rocklin, CA 95765</t>
+          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$869,990</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/491-Red-Sand-Ct-95765/home/185094730</t>
+          <t>/CA/Rocklin/3645-Amethyst-Dr-95677/home/19518086</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2,356</t>
+          <t>0.36</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2316 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2316-Ranch-View-Dr-95765/home/173208060</t>
+          <t>/CA/Rocklin/1510-Nichols-Dr-95765/home/148533199</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>0.76</t>
         </is>
       </c>
     </row>
@@ -996,32 +996,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3325 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$1,049,438</t>
+          <t>$1,399,990</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3325-Jamboree-Dr-95765/home/168188328</t>
+          <t>/CA/Rocklin/2314-Ranch-View-Dr-95765/home/173208061</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2,806</t>
+          <t>3,877</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3645 Amethyst Dr, Rocklin, CA 95677</t>
+          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$837,318</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3645-Amethyst-Dr-95677/home/19518086</t>
+          <t>/CA/Rocklin/6017-West-Oaks-Blvd-95765/home/175793787</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2,171</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1066,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1510 Nichols Dr, Rocklin, CA 95765</t>
+          <t>4050 Whitney Vista Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$2,049,000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1510-Nichols-Dr-95765/home/148533199</t>
+          <t>/CA/Rocklin/4050-Whitney-Vista-Ln-95677/home/180666864</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>4,445</t>
         </is>
       </c>
     </row>
@@ -1101,32 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4519 Scenic Dr, Rocklin, CA 95765</t>
+          <t>5861 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$649,000</t>
+          <t>$1,078,287</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4519-Scenic-Dr-95765/home/19518978</t>
+          <t>/CA/Rocklin/5861-Brookshire-Dr-95677/home/184067611</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1,986</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2314 Ranch View Dr, Rocklin, CA 95765</t>
+          <t>1228 Buck Ridge Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$1,399,990</t>
+          <t>$1,199,990</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2314-Ranch-View-Dr-95765/home/173208061</t>
+          <t>/CA/Rocklin/1228-Buck-Ridge-Dr-95765/home/180661672</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3,877</t>
+          <t>3,538</t>
         </is>
       </c>
     </row>
@@ -1171,32 +1171,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6017 W Oaks Blvd, Rocklin, CA 95765</t>
+          <t>2578 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$837,318</t>
+          <t>$2,150,000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6017-West-Oaks-Blvd-95765/home/175793787</t>
+          <t>/CA/Rocklin/2578-Clubhouse-Dr-W-95765/home/19638924</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2,171</t>
+          <t>4,070</t>
         </is>
       </c>
     </row>
@@ -1206,32 +1206,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4050 Whitney Vista Ln, Rocklin, CA 95677</t>
+          <t>1233 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2,049,000</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4050-Whitney-Vista-Ln-95677/home/180666864</t>
+          <t>/CA/Rocklin/1233-Buck-Ridge-Ct-95765/home/180661696</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4,445</t>
+          <t>2,201</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5861 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>1235 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,108,287</t>
+          <t>$1,149,990</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5861-Brookshire-Dr-95677/home/184067611</t>
+          <t>/CA/Rocklin/1235-Buck-Ridge-Ct-95765/home/180661695</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -1276,32 +1276,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1228 Buck Ridge Dr, Rocklin, CA 95765</t>
+          <t>The Emerald, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$1,199,990</t>
+          <t>$680,000+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1228-Buck-Ridge-Dr-95765/home/180661672</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Emerald/home/177028962</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3,538</t>
+          <t>1,964</t>
         </is>
       </c>
     </row>
@@ -1311,32 +1311,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2578 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>The Amethyst, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2,150,000</t>
+          <t>$715,000+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2578-Clubhouse-Dr-W-95765/home/19638924</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Amethyst/home/177028963</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4,070</t>
+          <t>2,126</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1233 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>The Sapphire, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$740,000+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1233-Buck-Ridge-Ct-95765/home/180661696</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Sapphire/home/177028965</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2,201</t>
+          <t>2,232</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1235 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>The Diamond, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,149,990</t>
+          <t>$760,000+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1235-Buck-Ridge-Ct-95765/home/180661695</t>
+          <t>/CA/Rocklin/Granite-Terrace/The-Diamond/home/177056336</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Emerald, Rocklin, CA 95677</t>
+          <t>Residence One, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$680,000+</t>
+          <t>$1,025,900+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Granite-Terrace/The-Emerald/home/177028962</t>
+          <t>/CA/Rocklin/The-Summit-at-Whitney-Ranch/Residence-One/home/185142072</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1,964</t>
+          <t>2,351</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Amethyst, Rocklin, CA 95677</t>
+          <t>Floorplan 4180, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$715,000+</t>
+          <t>$1,050,000+</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Granite-Terrace/The-Amethyst/home/177028963</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4180/home/185599571</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2,126</t>
+          <t>2,766</t>
         </is>
       </c>
     </row>
@@ -1486,17 +1486,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Sapphire, Rocklin, CA 95677</t>
+          <t>Floorplan 4186, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$740,000+</t>
+          <t>$1,250,000+</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Granite-Terrace/The-Sapphire/home/177028965</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4186/home/185604533</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2,232</t>
+          <t>3,008</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Diamond, Rocklin, CA 95677</t>
+          <t>Floorplan 4184, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$760,000+</t>
+          <t>$1,125,000+</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Granite-Terrace/The-Diamond/home/177056336</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4184/home/185607861</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -1556,32 +1556,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Residence One, Rocklin, CA 95765</t>
+          <t>Floorplan 4182, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$1,025,900+</t>
+          <t>$1,130,000+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/The-Summit-at-Whitney-Ranch/Residence-One/home/185142072</t>
+          <t>/CA/Rocklin/Dias-Lane/Floorplan-4182/home/185610868</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2,351</t>
+          <t>—Sq.</t>
         </is>
       </c>
     </row>
@@ -1591,32 +1591,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Floorplan 4180, Rocklin, CA 95677</t>
+          <t>Plan 3, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$1,050,000+</t>
+          <t>$1,275,325+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Dias-Lane/Floorplan-4180/home/185599571</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-3/home/178456156</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2,766</t>
+          <t>3,710</t>
         </is>
       </c>
     </row>
@@ -1626,32 +1626,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Floorplan 4186, Rocklin, CA 95677</t>
+          <t>Plan 2, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$1,250,000+</t>
+          <t>$1,116,428+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Dias-Lane/Floorplan-4186/home/185604533</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-2/home/178456157</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3,008</t>
+          <t>3,503</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Floorplan 4184, Rocklin, CA 95677</t>
+          <t>Plan 1, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$1,125,000+</t>
+          <t>$951,075+</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Dias-Lane/Floorplan-4184/home/185607861</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-1/home/178456158</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Floorplan 4182, Rocklin, CA 95677</t>
+          <t>Plan 4, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$1,130,000+</t>
+          <t>$1,008,930+</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Dias-Lane/Floorplan-4182/home/185610868</t>
+          <t>/CA/Rocklin/Rocklin-Meadows/Plan-4/home/186995321</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>—Sq.</t>
+          <t>3,287</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plan 3, Rocklin, CA 95677</t>
+          <t>5642 Miners Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$1,275,325+</t>
+          <t>$499,900</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Rocklin-Meadows/Plan-3/home/178456156</t>
+          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3,710</t>
+          <t>1,251</t>
         </is>
       </c>
     </row>
@@ -1766,32 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Plan 2, Rocklin, CA 95677</t>
+          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$1,116,428+</t>
+          <t>$328,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Rocklin-Meadows/Plan-2/home/178456157</t>
+          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3,503</t>
+          <t>816</t>
         </is>
       </c>
     </row>
@@ -1801,32 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Plan 1, Rocklin, CA 95677</t>
+          <t>8821 Cortina Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$951,075+</t>
+          <t>$469,995</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/Rocklin-Meadows/Plan-1/home/178456158</t>
+          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>1,271</t>
         </is>
       </c>
     </row>
@@ -1836,32 +1836,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6520 Hearthstone Cir #431, Rocklin, CA 95677</t>
+          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$328,000</t>
+          <t>$659,000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6520-Hearthstone-Cir-95677/unit-431/home/19591674</t>
+          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>2,128</t>
         </is>
       </c>
     </row>
@@ -1871,22 +1871,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8821 Cortina Cir, Roseville, CA 95678</t>
+          <t>5649 Black Willow St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$469,995</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/CA/Roseville/8821-Cortina-Cir-95678/home/186225723</t>
+          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1,271</t>
+          <t>2,300</t>
         </is>
       </c>
     </row>
@@ -1906,32 +1906,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6570 Hearthstone Cir #1413, Rocklin, CA 95677</t>
+          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$405,000</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6570-Hearthstone-Cir-95677/unit-1413/home/19596416</t>
+          <t>/CA/Roseville/6884-Cherry-Ridge-Cir-95678/home/19009694</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1,195</t>
+          <t>3,121</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6260 Rustic Hills Dr, Rocklin, CA 95677</t>
+          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$659,000</t>
+          <t>$549,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6260-Rustic-Hills-Dr-95677/home/19558248</t>
+          <t>/CA/Rocklin/3408-Stoney-Rd-95765/home/19517823</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2,128</t>
+          <t>1,577</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5649 Black Willow St, Rocklin, CA 95677</t>
+          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$999,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5649-Black-Willow-St-95677/home/143936394</t>
+          <t>/CA/Rocklin/2402-Leafy-Way-Ct-95765/home/19594515</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>3,888</t>
         </is>
       </c>
     </row>
@@ -2011,32 +2011,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6884 Cherry Ridge Cir, Roseville, CA 95678</t>
+          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$449,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/CA/Roseville/6884-Cherry-Ridge-Cir-95678/home/19009694</t>
+          <t>/CA/Rocklin/5804-Meadowdale-Ct-95677/home/19577790</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3,121</t>
+          <t>986</t>
         </is>
       </c>
     </row>
@@ -2046,32 +2046,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3408 Stoney Rd, Rocklin, CA 95765</t>
+          <t>4405 Rocky Top Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$549,000</t>
+          <t>$1,356,995</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3408-Stoney-Rd-95765/home/19517823</t>
+          <t>/CA/Rocklin/4405-Rocky-Top-Ct-95677/home/180666841</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1,577</t>
+          <t>3,837</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4230 Midas Ave, Rocklin, CA 95677</t>
+          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$689,000</t>
+          <t>$1,099,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4230-Midas-Ave-95677/home/19571810</t>
+          <t>/CA/Rocklin/2930-Dry-Gulch-Ct-95677/home/19571947</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>3,145</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2402 Leafy Way Ct, Rocklin, CA 95765</t>
+          <t>2803 Executive Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$999,000</t>
+          <t>$525,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2402-Leafy-Way-Ct-95765/home/19594515</t>
+          <t>/CA/Rocklin/2803-Executive-Ct-95765/home/19633352</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3,888</t>
+          <t>1,206</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3381 Black Oak Dr, Rocklin, CA 95765</t>
+          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$1,148,500</t>
+          <t>$1,378,000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3381-Black-Oak-Dr-95765/home/19624984</t>
+          <t>/CA/Rocklin/4630-Ravine-Crossing-Ct-95677/home/19592177</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3,462</t>
+          <t>3,466</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5804 Meadowdale Ct, Rocklin, CA 95677</t>
+          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$459,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5804-Meadowdale-Ct-95677/home/19577790</t>
+          <t>/CA/Rocklin/2504-Anvil-Ct-95765/home/19588484</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>3,624</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2930 Dry Gulch Ct, Rocklin, CA 95677</t>
+          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$1,099,000</t>
+          <t>$1,124,800</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2930-Dry-Gulch-Ct-95677/home/19571947</t>
+          <t>/CA/Rocklin/2532-Clubhouse-Dr-W-95765/home/19643217</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3,145</t>
+          <t>3,607</t>
         </is>
       </c>
     </row>
@@ -2256,32 +2256,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2803 Executive Ct, Rocklin, CA 95765</t>
+          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$525,000</t>
+          <t>$899,900</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2803-Executive-Ct-95765/home/19633352</t>
+          <t>/CA/Rocklin/4344-Lakebreeze-Dr-95677/home/19609032</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1,206</t>
+          <t>3,113</t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4630 Ravine Crossing Ct, Rocklin, CA 95677</t>
+          <t>4180 Dias Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$1,378,000</t>
+          <t>$1,050,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4630-Ravine-Crossing-Ct-95677/home/19592177</t>
+          <t>/CA/Rocklin/4180-Dias-Ln-95677/home/173208546</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3,466</t>
+          <t>2,798</t>
         </is>
       </c>
     </row>
@@ -2326,22 +2326,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2504 Anvil Ct, Rocklin, CA 95765</t>
+          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$699,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2504-Anvil-Ct-95765/home/19588484</t>
+          <t>/CA/Roseville/6792-Maple-Creek-Dr-95678/home/19628751</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3,624</t>
+          <t>2,538</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2361,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2532 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>3934 Rawhide, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$1,124,800</t>
+          <t>$270,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2532-Clubhouse-Dr-W-95765/home/19643217</t>
+          <t>/CA/Rocklin/3934-Rawhide-Rd-95677/home/77488096</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3,607</t>
+          <t>0.85</t>
         </is>
       </c>
     </row>
@@ -2396,32 +2396,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4344 Lakebreeze Dr, Rocklin, CA 95677</t>
+          <t>924 Cougar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$899,900</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4344-Lakebreeze-Dr-95677/home/19609032</t>
+          <t>/CA/Rocklin/924-Cougar-Ct-95765/home/19595217</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3,113</t>
+          <t>3,163</t>
         </is>
       </c>
     </row>
@@ -2431,17 +2431,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4180 Dias Ln, Rocklin, CA 95677</t>
+          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$1,050,000</t>
+          <t>$1,099,359</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4180-Dias-Ln-95677/home/173208546</t>
+          <t>/CA/Rocklin/3327-Jamboree-Dr-95765/home/168188327</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2451,12 +2451,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2,798</t>
+          <t>2,989</t>
         </is>
       </c>
     </row>
@@ -2466,32 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6792 Maple Creek Dr, Roseville, CA 95678</t>
+          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$699,000</t>
+          <t>$399,900</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/CA/Roseville/6792-Maple-Creek-Dr-95678/home/19628751</t>
+          <t>/CA/Rocklin/2410-S-Whitney-Blvd-95677/home/19575199</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2,538</t>
+          <t>944</t>
         </is>
       </c>
     </row>
@@ -2501,32 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3934 Rawhide, Rocklin, CA 95677</t>
+          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$270,000</t>
+          <t>$1,225,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3934-Rawhide-Rd-95677/home/77488096</t>
+          <t>/CA/Rocklin/2225-Wild-Plains-Cir-95765/home/19594539</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4,486</t>
         </is>
       </c>
     </row>
@@ -2536,32 +2536,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>924 Cougar Ct, Rocklin, CA 95765</t>
+          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$269,990</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/924-Cougar-Ct-95765/home/19595217</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-308/home/183577717</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3,163</t>
+          <t>1,401</t>
         </is>
       </c>
     </row>
@@ -2571,32 +2571,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3327 Jamboree Dr, Rocklin, CA 95765</t>
+          <t>5505 S Grove #73, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$1,099,359</t>
+          <t>$179,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3327-Jamboree-Dr-95765/home/168188327</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-73/home/109458325</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2,989</t>
+          <t>1,277</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2606,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2410 S Whitney Blvd, Rocklin, CA 95677</t>
+          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$399,900</t>
+          <t>$325,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2410-S-Whitney-Blvd-95677/home/19575199</t>
+          <t>/CA/Rocklin/4787-Racetrack-Rd-95677/home/181067386</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>—Beds</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>—Baths</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>0.28</t>
         </is>
       </c>
     </row>
@@ -2641,32 +2641,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2225 Wild Plains Cir, Rocklin, CA 95765</t>
+          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$1,225,000</t>
+          <t>$905,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2225-Wild-Plains-Cir-95765/home/19594539</t>
+          <t>/CA/Rocklin/1022-Silver-Saddle-Ln-95765/home/19594904</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4,486</t>
+          <t>3,469</t>
         </is>
       </c>
     </row>
@@ -2676,32 +2676,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5505 S Grove St #308, Rocklin, CA 95677</t>
+          <t>5437 Thunder Ridge Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$269,990</t>
+          <t>$649,999</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-308/home/183577717</t>
+          <t>/CA/Rocklin/5437-Thunder-Ridge-Cir-95765/home/19519302</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1,401</t>
+          <t>2,452</t>
         </is>
       </c>
     </row>
@@ -2711,32 +2711,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5505 S Grove #73, Rocklin, CA 95677</t>
+          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$179,000</t>
+          <t>$799,999</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-73/home/109458325</t>
+          <t>/CA/Rocklin/5400-Bradall-Ln-95677/home/172233905</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1,277</t>
+          <t>2,693</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4787 Racetrack Rd, Rocklin, CA 95677</t>
+          <t>3709 Sylvan Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$1,115,000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4787-Racetrack-Rd-95677/home/181067386</t>
+          <t>/CA/Rocklin/3709-Sylvan-Ct-95765/home/19626346</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>—Beds</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>—Baths</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3,462</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2513 Cowboy Ct, Rocklin, CA 95765</t>
+          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$819,000</t>
+          <t>$1,429,990</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2513-Cowboy-Ct-95765/home/161230226</t>
+          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2,303</t>
+          <t>4,001</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1022 Silver Saddle Ln, Rocklin, CA 95765</t>
+          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$905,000</t>
+          <t>$990,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1022-Silver-Saddle-Ln-95765/home/19594904</t>
+          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3,469</t>
+          <t>2,852</t>
         </is>
       </c>
     </row>
@@ -2851,32 +2851,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5400 Bradall Ln, Rocklin, CA 95677</t>
+          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$799,999</t>
+          <t>$1,695,000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5400-Bradall-Ln-95677/home/172233905</t>
+          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2,693</t>
+          <t>5,304</t>
         </is>
       </c>
     </row>
@@ -2886,32 +2886,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3709 Sylvan Ct, Rocklin, CA 95765</t>
+          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$1,115,000</t>
+          <t>$1,550,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3709-Sylvan-Ct-95765/home/19626346</t>
+          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3,462</t>
+          <t>5,023</t>
         </is>
       </c>
     </row>
@@ -2921,17 +2921,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2322 Ranch View Ct, Rocklin, CA 95765</t>
+          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$1,429,990</t>
+          <t>$1,086,428</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2322-Ranch-View-Ct-95765/home/173208058</t>
+          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4,001</t>
+          <t>3,309</t>
         </is>
       </c>
     </row>
@@ -2956,32 +2956,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3946 Rawhide Rd, Rocklin, CA 95677</t>
+          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$990,000</t>
+          <t>$1,099,990</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3946-Rawhide-Rd-95677/home/19570305</t>
+          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2,852</t>
+          <t>2,405</t>
         </is>
       </c>
     </row>
@@ -2991,32 +2991,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4090 Clubview Ct, Rocklin, CA 95765</t>
+          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$1,695,000</t>
+          <t>$1,299,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4090-Clubview-Ct-95765/home/19640383</t>
+          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5,304</t>
+          <t>4,162</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3026,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2346 Clubhouse Dr, Rocklin, CA 95765</t>
+          <t>4421 Winners Cir, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$519,000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2346-Clubhouse-Dr-95765/home/19009161</t>
+          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>5,023</t>
+          <t>1,161</t>
         </is>
       </c>
     </row>
@@ -3061,32 +3061,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5660 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$1,116,428</t>
+          <t>$735,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5660-Brookshire-Ct-95677/home/185758964</t>
+          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3,309</t>
+          <t>2,070</t>
         </is>
       </c>
     </row>
@@ -3096,32 +3096,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1232 Buck Ridge Ct, Rocklin, CA 95765</t>
+          <t>4172 Lakeside Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$1,099,990</t>
+          <t>$139,500</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1232-Buck-Ridge-Ct-95765/home/180661681</t>
+          <t>/CA/Rocklin/4172-Lakeside-Dr-95677/home/185629593</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>1,363</t>
         </is>
       </c>
     </row>
@@ -3131,32 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3707 Stone Temple Ct, Rocklin, CA 95765</t>
+          <t>4129 Oakview Dr #168, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$1,299,000</t>
+          <t>$139,000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3707-Stone-Temple-Ct-95765/home/19627466</t>
+          <t>/CA/Rocklin/4129-Oakview-Dr-95677/unit-168/home/185516603</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4,162</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -3166,22 +3166,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4421 Winners Cir, Rocklin, CA 95677</t>
+          <t>1181 Whitney Ranch Pkwy #717, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$519,000</t>
+          <t>$345,000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4421-Winners-Cir-95677/home/19559955</t>
+          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-717/home/19590245</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1,161</t>
+          <t>898</t>
         </is>
       </c>
     </row>
@@ -3201,22 +3201,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5344 Humboldt Dr, Rocklin, CA 95765</t>
+          <t>2814 Springfield Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$735,000</t>
+          <t>$542,500</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5344-Humboldt-Dr-95765/home/19519344</t>
+          <t>/CA/Rocklin/2814-Springfield-Dr-95765/home/19518661</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2,070</t>
+          <t>1,685</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2814 Springfield Dr, Rocklin, CA 95765</t>
+          <t>1025 Bent Oak Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$542,500</t>
+          <t>$1,579,900</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2814-Springfield-Dr-95765/home/19518661</t>
+          <t>/CA/Rocklin/1025-Bent-Oak-Ln-95765/home/173208159</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1,685</t>
+          <t>3,590</t>
         </is>
       </c>
     </row>
@@ -3271,32 +3271,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1025 Bent Oak Ln, Rocklin, CA 95765</t>
+          <t>5556 Sage Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$1,579,900</t>
+          <t>$600,000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1025-Bent-Oak-Ln-95765/home/173208159</t>
+          <t>/CA/Rocklin/5556-Sage-Dr-95765/home/19517056</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3,590</t>
+          <t>1,735</t>
         </is>
       </c>
     </row>
@@ -3306,22 +3306,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5556 Sage Dr, Rocklin, CA 95765</t>
+          <t>5938 Blackstone Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$600,000</t>
+          <t>$650,000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5556-Sage-Dr-95765/home/19517056</t>
+          <t>/CA/Rocklin/5938-Blackstone-Dr-95765/home/19519927</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1,735</t>
+          <t>2,056</t>
         </is>
       </c>
     </row>
@@ -3341,32 +3341,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5938 Blackstone Dr, Rocklin, CA 95765</t>
+          <t>6164 Lonetree Blvd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$650,000</t>
+          <t>$478,000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5938-Blackstone-Dr-95765/home/19519927</t>
+          <t>/CA/Rocklin/6164-Lonetree-Blvd-95765/home/19592639</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2,056</t>
+          <t>1,847</t>
         </is>
       </c>
     </row>
@@ -3376,22 +3376,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6164 Lonetree Blvd, Rocklin, CA 95765</t>
+          <t>5988 Willowynd Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$478,000</t>
+          <t>$575,000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6164-Lonetree-Blvd-95765/home/19592639</t>
+          <t>/CA/Rocklin/5988-Willowynd-Dr-95677/home/19576826</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,847</t>
+          <t>1,740</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5988 Willowynd Dr, Rocklin, CA 95677</t>
+          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$575,000</t>
+          <t>$799,000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5988-Willowynd-Dr-95677/home/19576826</t>
+          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1,740</t>
+          <t>2,312</t>
         </is>
       </c>
     </row>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2391 Benjamin Ct, Rocklin, CA 95765</t>
+          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$799,000</t>
+          <t>$529,000</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2391-Benjamin-Ct-95765/home/22431423</t>
+          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2,312</t>
+          <t>1,324</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2430 Casa Del Oro Way, Rocklin, CA 95677</t>
+          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$529,000</t>
+          <t>$653,000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2430-Casa-del-Oro-Way-95677/home/19577698</t>
+          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1,324</t>
+          <t>2,207</t>
         </is>
       </c>
     </row>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2698 Coronado Ln, Lincoln, CA 95648</t>
+          <t>240 Nerissa Ct, Roseville, CA 95661</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$599,900</t>
+          <t>$1,250,000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/CA/Lincoln/2698-Coronado-Ln-95648/home/175790693</t>
+          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1,706</t>
+          <t>3,716</t>
         </is>
       </c>
     </row>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3503 Jeffrey Pine Ln, Rocklin, CA 95677</t>
+          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$653,000</t>
+          <t>$1,200,000</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3503-Jeffrey-Pine-Ln-95677/home/175797111</t>
+          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2,207</t>
+          <t>3,381</t>
         </is>
       </c>
     </row>
@@ -3586,32 +3586,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2211 Telegraph Hill Dr, Rocklin, CA 95765</t>
+          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$1,000,000</t>
+          <t>$900,000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2211-Telegraph-Hill-Dr-95765/home/19590849</t>
+          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2,773</t>
+          <t>3,062</t>
         </is>
       </c>
     </row>
@@ -3621,32 +3621,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>240 Nerissa Ct, Roseville, CA 95661</t>
+          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$1,250,000</t>
+          <t>$975,000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/CA/Roseville/240-Nerissa-Ct-95661/home/19604613</t>
+          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3,716</t>
+          <t>3,939</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5642 Miners Cir, Rocklin, CA 95765</t>
+          <t>4912 Charter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$499,900</t>
+          <t>$795,000</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5642-Miners-Cir-95765/home/19518537</t>
+          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1,251</t>
+          <t>2,281</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3245 Hoot Owl Loop, Rocklin, CA 95765</t>
+          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$1,200,000</t>
+          <t>$284,128</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3245-Hoot-Owl-Loop-95765/home/161261237</t>
+          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3,381</t>
+          <t>1,050</t>
         </is>
       </c>
     </row>
@@ -3726,32 +3726,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2905 Shady Acres Loop, Rocklin, CA 95765</t>
+          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$900,000</t>
+          <t>$819,900</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2905-Shady-Acres-Loop-95765/home/168193241</t>
+          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3,062</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>6404 Cosmos Ct, Rocklin, CA 95677</t>
+          <t>4357 Leisa Ln, Penryn, CA 95663</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$975,000</t>
+          <t>$1,299,950</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6404-Cosmos-Ct-95677/home/19623625</t>
+          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>3,939</t>
+          <t>2,678</t>
         </is>
       </c>
     </row>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4912 Charter Rd, Rocklin, CA 95765</t>
+          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$795,000</t>
+          <t>$925,000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4912-Charter-Rd-95765/home/19521028</t>
+          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3816,12 +3816,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2,281</t>
+          <t>3,332</t>
         </is>
       </c>
     </row>
@@ -3831,17 +3831,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1181 Whitney Ranch Pkwy #733, Rocklin, CA 95765</t>
+          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$284,128</t>
+          <t>$951,075</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1181-Whitney-Ranch-Pkwy-95765/unit-733/home/19590718</t>
+          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>2,552</t>
         </is>
       </c>
     </row>
@@ -3866,32 +3866,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4227 Silver Lupine Ln, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$819,900</t>
+          <t>$118,555</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4227-Silver-Lupine-Ln-95677/home/145008762</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>960</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4357 Leisa Ln, Penryn, CA 95663</t>
+          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$1,299,950</t>
+          <t>$775,000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/CA/Penryn/4357-Leisa-Ln-95663/home/19568700</t>
+          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2,678</t>
+          <t>1,814</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2169 Red Setter Rd, Rocklin, CA 95765</t>
+          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$925,000</t>
+          <t>$949,900</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2169-Red-Setter-Rd-95765/home/19594902</t>
+          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3,332</t>
+          <t>3,252</t>
         </is>
       </c>
     </row>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5950 Brookshire Dr, Rocklin, CA 95677</t>
+          <t>5240 Paragon St, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$951,075</t>
+          <t>$695,000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5950-Brookshire-Dr-95677/home/178456155</t>
+          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2,552</t>
+          <t>1,482</t>
         </is>
       </c>
     </row>
@@ -4006,32 +4006,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5505 S Grove St #81, Rocklin, CA 95677</t>
+          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$118,555</t>
+          <t>$669,000</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-81/home/177660535</t>
+          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>2,240</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4036 Coldwater Dr, Rocklin, CA 95765</t>
+          <t>3260 Midas Ave, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$775,000</t>
+          <t>$679,000</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4036-Coldwater-Dr-95765/home/19642459</t>
+          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1,814</t>
+          <t>1,950</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4076,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>4564 Greenbrae Rd, Rocklin, CA 95677</t>
+          <t>3519 Willard Way, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$949,900</t>
+          <t>$560,000</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4564-Greenbrae-Rd-95677/home/19628273</t>
+          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3,252</t>
+          <t>1,694</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5240 Paragon St, Rocklin, CA 95677</t>
+          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$695,000</t>
+          <t>$965,000</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5240-Paragon-St-95677/home/19575336</t>
+          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1,482</t>
+          <t>3,382</t>
         </is>
       </c>
     </row>
@@ -4146,32 +4146,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>4909 Regatta Ct, Rocklin, CA 95677</t>
+          <t>2240 Abby Rd, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$669,000</t>
+          <t>$1,148,000</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4909-Regatta-Ct-95677/home/146694385</t>
+          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2,240</t>
+          <t>3,363</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3260 Midas Ave, Rocklin, CA 95677</t>
+          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$679,000</t>
+          <t>$935,000</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3260-Midas-Ave-95677/home/19582910</t>
+          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2,500</t>
         </is>
       </c>
     </row>
@@ -4216,17 +4216,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3519 Willard Way, Rocklin, CA 95677</t>
+          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$560,000</t>
+          <t>$649,888</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/3519-Willard-Way-95677/home/19584826</t>
+          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1,694</t>
+          <t>1,947</t>
         </is>
       </c>
     </row>
@@ -4251,17 +4251,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>803 Wild Berry Ln, Rocklin, CA 95765</t>
+          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>$965,000</t>
+          <t>$799,900</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/803-Wild-Berry-Ln-95765/home/19595747</t>
+          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4271,12 +4271,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3,382</t>
+          <t>2,406</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2240 Abby Rd, Rocklin, CA 95765</t>
+          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$1,148,000</t>
+          <t>$1,499,000</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2240-Abby-Rd-95765/home/19629239</t>
+          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3,363</t>
+          <t>4,532</t>
         </is>
       </c>
     </row>
@@ -4321,22 +4321,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>4001 Nellia Ct, Rocklin, CA 95677</t>
+          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$935,000</t>
+          <t>$1,595,000</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/4001-Nellia-Ct-95677/home/173193112</t>
+          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>4,421</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4356,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2321 Eagle Ct, Rocklin, CA 95677</t>
+          <t>2308 Egret Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$649,888</t>
+          <t>$733,000</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2321-Eagle-Ct-95677/home/19576127</t>
+          <t>/CA/Rocklin/2308-Egret-Ct-95765/home/19522489</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1,947</t>
+          <t>3,059</t>
         </is>
       </c>
     </row>
@@ -4391,32 +4391,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5509 S Snowbrush Dr, Rocklin, CA 95677</t>
+          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$799,900</t>
+          <t>$949,000</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/5509-Snowbrush-Dr-95677/home/161262020</t>
+          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2,406</t>
+          <t>3,771</t>
         </is>
       </c>
     </row>
@@ -4426,17 +4426,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1843 Sorrell Cir, Rocklin, CA 95765</t>
+          <t>6216 Cameo Dr, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$1,550,000</t>
+          <t>$699,900</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/1843-Sorrell-Cir-95765/home/19594250</t>
+          <t>/CA/Rocklin/6216-Cameo-Dr-95677/home/19514300</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4446,12 +4446,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4,532</t>
+          <t>2,759</t>
         </is>
       </c>
     </row>
@@ -4461,32 +4461,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>6300 Boardman Ct, Rocklin, CA 95677</t>
+          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$1,595,000</t>
+          <t>$899,000</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/6300-Boardman-Ct-95677/home/19557889</t>
+          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4,421</t>
+          <t>3,043</t>
         </is>
       </c>
     </row>
@@ -4496,32 +4496,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2409 Ruby Ct, Rocklin, CA 95677</t>
+          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$949,000</t>
+          <t>$149,999</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2409-Ruby-Ct-95677/home/19574896</t>
+          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>1,200</t>
         </is>
       </c>
     </row>
@@ -4531,100 +4531,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2203 Jenamar Ct, Rocklin, CA 95765</t>
+          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$899,000</t>
+          <t>$649,000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/CA/Rocklin/2203-Jenamar-Ct-95765/home/19625083</t>
+          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
-        <is>
-          <t>3,043</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>5505 S Grove St #38, Rocklin, CA 95677</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>$149,999</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>/CA/Rocklin/5505-S-Grove-St-95677/unit-38/home/177662912</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>1,200</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>3428 Kensington Ct, Rocklin, CA 95765</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>$649,000</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>/CA/Rocklin/3428-Kensington-Ct-95765/home/186235888</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
         <is>
           <t>2,016</t>
         </is>
